--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,31 +700,31 @@
         </is>
       </c>
       <c r="D8">
-        <v>27.2</v>
+        <v>24.5</v>
       </c>
       <c r="E8">
-        <v>27.9</v>
+        <v>11.5</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43.9</v>
+        <v>63</v>
       </c>
       <c r="H8">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="I8">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="J8">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="K8">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="L8">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
@@ -735,7 +735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -744,31 +744,31 @@
         </is>
       </c>
       <c r="D9">
-        <v>36.8</v>
+        <v>33.1</v>
       </c>
       <c r="E9">
-        <v>24.6</v>
+        <v>13.8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>37.6</v>
+        <v>52.1</v>
       </c>
       <c r="H9">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="I9">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="J9">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="L9">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
@@ -779,7 +779,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="D10">
-        <v>15.6</v>
+        <v>13.1</v>
       </c>
       <c r="E10">
-        <v>34.4</v>
+        <v>5.6</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>49</v>
+        <v>80.3</v>
       </c>
       <c r="H10">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="I10">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="J10">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="K10">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="L10">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
@@ -823,7 +823,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="D11">
-        <v>25.8</v>
+        <v>27.2</v>
       </c>
       <c r="E11">
-        <v>13.6</v>
+        <v>27.9</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>59.6</v>
+        <v>43.9</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="I11">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="J11">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="K11">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="L11">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
@@ -867,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -876,31 +876,31 @@
         </is>
       </c>
       <c r="D12">
-        <v>34.7</v>
+        <v>36.8</v>
       </c>
       <c r="E12">
-        <v>11.9</v>
+        <v>24.6</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>52.4</v>
+        <v>37.6</v>
       </c>
       <c r="H12">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I12">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="J12">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="K12">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="L12">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="13">
@@ -911,7 +911,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="D13">
-        <v>14.7</v>
+        <v>15.6</v>
       </c>
       <c r="E13">
-        <v>13.8</v>
+        <v>34.4</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>70.5</v>
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I13">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
       <c r="J13">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K13">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="L13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14">
@@ -955,7 +955,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -964,31 +964,31 @@
         </is>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>25.8</v>
       </c>
       <c r="E14">
-        <v>6.2</v>
+        <v>13.6</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>69.8</v>
+        <v>59.6</v>
       </c>
       <c r="H14">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I14">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="J14">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="K14">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="L14">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1008,31 +1008,31 @@
         </is>
       </c>
       <c r="D15">
-        <v>32.1</v>
+        <v>34.7</v>
       </c>
       <c r="E15">
-        <v>5.7</v>
+        <v>11.9</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>61.2</v>
+        <v>52.4</v>
       </c>
       <c r="H15">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I15">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="J15">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="K15">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="L15">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1052,31 +1052,31 @@
         </is>
       </c>
       <c r="D16">
-        <v>13.5</v>
+        <v>14.7</v>
       </c>
       <c r="E16">
-        <v>4.9</v>
+        <v>13.8</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="H16">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I16">
-        <v>0.73</v>
+        <v>0.52</v>
       </c>
       <c r="J16">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K16">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="L16">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1096,31 +1096,31 @@
         </is>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>65.5</v>
+        <v>69.8</v>
       </c>
       <c r="H17">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I17">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="J17">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="K17">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="L17">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="18">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1140,31 +1140,31 @@
         </is>
       </c>
       <c r="D18">
-        <v>40.1</v>
+        <v>32.1</v>
       </c>
       <c r="E18">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>54.8</v>
+        <v>61.2</v>
       </c>
       <c r="H18">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="I18">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="J18">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="K18">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="L18">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1184,31 +1184,31 @@
         </is>
       </c>
       <c r="D19">
-        <v>16.3</v>
+        <v>13.5</v>
       </c>
       <c r="E19">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>81.2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="H19">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I19">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="J19">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="K19">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="L19">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1231,25 +1231,25 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>61.3</v>
+        <v>65.5</v>
       </c>
       <c r="H20">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I20">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J20">
         <v>0.47</v>
       </c>
       <c r="K20">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="L20">
         <v>0.3</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1275,25 +1275,25 @@
         <v>40.1</v>
       </c>
       <c r="E21">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>49.8</v>
+        <v>54.8</v>
       </c>
       <c r="H21">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I21">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="J21">
         <v>0.58</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="L21">
         <v>0.41</v>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1319,25 +1319,25 @@
         <v>16.3</v>
       </c>
       <c r="E22">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>78.8</v>
+        <v>81.2</v>
       </c>
       <c r="H22">
         <v>0.17</v>
       </c>
       <c r="I22">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="J22">
         <v>0.28</v>
       </c>
       <c r="K22">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="L22">
         <v>0.16</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="D23">
-        <v>14.3</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>76.40000000000001</v>
+        <v>61.3</v>
       </c>
       <c r="H23">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I23">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="J23">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="K23">
-        <v>0.39</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1404,31 +1404,31 @@
         </is>
       </c>
       <c r="D24">
-        <v>19.2</v>
+        <v>40.1</v>
       </c>
       <c r="E24">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>72.7</v>
+        <v>49.8</v>
       </c>
       <c r="H24">
-        <v>0.21</v>
+        <v>0.45</v>
       </c>
       <c r="I24">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="J24">
-        <v>0.32</v>
+        <v>0.58</v>
       </c>
       <c r="K24">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1448,31 +1448,31 @@
         </is>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>16.3</v>
       </c>
       <c r="E25">
-        <v>11.1</v>
+        <v>3.9</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>80.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="H25">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I25">
-        <v>0.39</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J25">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="K25">
-        <v>0.22</v>
+        <v>0.46</v>
       </c>
       <c r="L25">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="D29">
-        <v>24.5</v>
+        <v>14.6</v>
       </c>
       <c r="E29">
-        <v>11.5</v>
+        <v>13.8</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>63</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H29">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="I29">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="J29">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="K29">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="L29">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1668,31 +1668,31 @@
         </is>
       </c>
       <c r="D30">
-        <v>33.1</v>
+        <v>20.6</v>
       </c>
       <c r="E30">
-        <v>13.8</v>
+        <v>16.3</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>52.1</v>
+        <v>62.1</v>
       </c>
       <c r="H30">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="I30">
-        <v>0.71</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J30">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="K30">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="L30">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1712,31 +1712,31 @@
         </is>
       </c>
       <c r="D31">
-        <v>13.1</v>
+        <v>7.6</v>
       </c>
       <c r="E31">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>80.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H31">
+        <v>0.09</v>
+      </c>
+      <c r="I31">
+        <v>0.44</v>
+      </c>
+      <c r="J31">
         <v>0.14</v>
       </c>
-      <c r="I31">
-        <v>0.7</v>
-      </c>
-      <c r="J31">
-        <v>0.23</v>
-      </c>
       <c r="K31">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="L31">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="32">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="D32">
-        <v>14.6</v>
+        <v>19.4</v>
       </c>
       <c r="E32">
-        <v>13.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>70.59999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H32">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I32">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="J32">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="K32">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="L32">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1800,31 +1800,31 @@
         </is>
       </c>
       <c r="D33">
-        <v>20.6</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>16.3</v>
+        <v>12.3</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>62.1</v>
+        <v>58.7</v>
       </c>
       <c r="H33">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I33">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J33">
+        <v>0.44</v>
+      </c>
+      <c r="K33">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J33">
-        <v>0.34</v>
-      </c>
-      <c r="K33">
-        <v>0.45</v>
-      </c>
       <c r="L33">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="34">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1844,42 +1844,42 @@
         </is>
       </c>
       <c r="D34">
-        <v>7.6</v>
+        <v>10.4</v>
       </c>
       <c r="E34">
-        <v>9.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>81.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H34">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I34">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J34">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="K34">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="L34">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1888,42 +1888,42 @@
         </is>
       </c>
       <c r="D35">
-        <v>19.4</v>
+        <v>24.9</v>
       </c>
       <c r="E35">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>70.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H35">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I35">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="K35">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="L35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1932,42 +1932,42 @@
         </is>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>37.44</v>
       </c>
       <c r="E36">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>58.7</v>
+        <v>61.56</v>
       </c>
       <c r="H36">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="I36">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="K36">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="L36">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12S</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1976,31 +1976,31 @@
         </is>
       </c>
       <c r="D37">
-        <v>10.4</v>
+        <v>14.9</v>
       </c>
       <c r="E37">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H37">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I37">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="K37">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="L37">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="38">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2020,31 +2020,31 @@
         </is>
       </c>
       <c r="D38">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>74.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="H38">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="J38">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="K38">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="L38">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="39">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="D39">
-        <v>37.44</v>
+        <v>34.4</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>61.56</v>
+        <v>61.1</v>
       </c>
       <c r="H39">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="J39">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="K39">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="L39">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="D40">
-        <v>14.9</v>
+        <v>13.3</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>84.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H40">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="J40">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="K40">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="L40">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="41">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="D41">
-        <v>23.4</v>
+        <v>27.1</v>
       </c>
       <c r="E41">
-        <v>2.1</v>
+        <v>21.6</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>73.5</v>
+        <v>50.3</v>
       </c>
       <c r="H41">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="I41">
-        <v>0.92</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J41">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="K41">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="42">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="D42">
-        <v>34.4</v>
+        <v>40.5</v>
       </c>
       <c r="E42">
-        <v>3.5</v>
+        <v>10.7</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>61.1</v>
+        <v>47.8</v>
       </c>
       <c r="H42">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="I42">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="J42">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="K42">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L42">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="43">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2240,31 +2240,31 @@
         </is>
       </c>
       <c r="D43">
-        <v>13.3</v>
+        <v>16.8</v>
       </c>
       <c r="E43">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>83.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="H43">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I43">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="J43">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="K43">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="L43">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="44">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2944,31 +2944,31 @@
         </is>
       </c>
       <c r="D59">
-        <v>7.8</v>
+        <v>25.2</v>
       </c>
       <c r="E59">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>81.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="H59">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="I59">
-        <v>0.44</v>
+        <v>0.78</v>
       </c>
       <c r="J59">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
       <c r="K59">
-        <v>0.24</v>
+        <v>0.57</v>
       </c>
       <c r="L59">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="60">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2988,31 +2988,31 @@
         </is>
       </c>
       <c r="D60">
-        <v>12.2</v>
+        <v>36.5</v>
       </c>
       <c r="E60">
-        <v>8.5</v>
+        <v>10.9</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>78.3</v>
+        <v>51.6</v>
       </c>
       <c r="H60">
-        <v>0.13</v>
+        <v>0.41</v>
       </c>
       <c r="I60">
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
       <c r="J60">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="K60">
-        <v>0.35</v>
+        <v>0.66</v>
       </c>
       <c r="L60">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="61">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3032,31 +3032,31 @@
         </is>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="E61">
-        <v>11.3</v>
+        <v>4.8</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>83.7</v>
+        <v>79.7</v>
       </c>
       <c r="H61">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I61">
+        <v>0.75</v>
+      </c>
+      <c r="J61">
         <v>0.26</v>
       </c>
-      <c r="J61">
-        <v>0.08</v>
-      </c>
       <c r="K61">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
       <c r="L61">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="62">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3076,31 +3076,31 @@
         </is>
       </c>
       <c r="D62">
-        <v>25.2</v>
+        <v>17.5</v>
       </c>
       <c r="E62">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>66.5</v>
+        <v>72.3</v>
       </c>
       <c r="H62">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="I62">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="J62">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="K62">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="L62">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="63">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3120,31 +3120,31 @@
         </is>
       </c>
       <c r="D63">
-        <v>36.5</v>
+        <v>30.4</v>
       </c>
       <c r="E63">
-        <v>10.9</v>
+        <v>12.7</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>51.6</v>
+        <v>55.9</v>
       </c>
       <c r="H63">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="I63">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="J63">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="K63">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="L63">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="64">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3164,31 +3164,31 @@
         </is>
       </c>
       <c r="D64">
-        <v>14.5</v>
+        <v>6.44</v>
       </c>
       <c r="E64">
-        <v>4.8</v>
+        <v>7.67</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>79.7</v>
+        <v>84.89</v>
       </c>
       <c r="H64">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="J64">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="K64">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="L64">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3208,31 +3208,31 @@
         </is>
       </c>
       <c r="D65">
-        <v>27.1</v>
+        <v>22.7</v>
       </c>
       <c r="E65">
-        <v>21.6</v>
+        <v>5.3</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>50.3</v>
+        <v>71</v>
       </c>
       <c r="H65">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="I65">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J65">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="K65">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="L65">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="66">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3252,31 +3252,31 @@
         </is>
       </c>
       <c r="D66">
-        <v>40.5</v>
+        <v>31.2</v>
       </c>
       <c r="E66">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>47.8</v>
+        <v>58.3</v>
       </c>
       <c r="H66">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="I66">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="J66">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="K66">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="L66">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="67">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3296,42 +3296,42 @@
         </is>
       </c>
       <c r="D67">
-        <v>16.8</v>
+        <v>13.5</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>76.2</v>
+        <v>82.2</v>
       </c>
       <c r="H67">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I67">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="J67">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="K67">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="L67">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3340,42 +3340,42 @@
         </is>
       </c>
       <c r="D68">
-        <v>17.5</v>
+        <v>24.5</v>
       </c>
       <c r="E68">
-        <v>9.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>72.3</v>
+        <v>71.2</v>
       </c>
       <c r="H68">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I68">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="J68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K68">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="L68">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3384,42 +3384,42 @@
         </is>
       </c>
       <c r="D69">
-        <v>30.4</v>
+        <v>34.67</v>
       </c>
       <c r="E69">
-        <v>12.7</v>
+        <v>4.11</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>55.9</v>
+        <v>60.22</v>
       </c>
       <c r="H69">
+        <v>0.37</v>
+      </c>
+      <c r="I69">
+        <v>0.89</v>
+      </c>
+      <c r="J69">
+        <v>0.52</v>
+      </c>
+      <c r="K69">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L69">
         <v>0.35</v>
-      </c>
-      <c r="I69">
-        <v>0.71</v>
-      </c>
-      <c r="J69">
-        <v>0.47</v>
-      </c>
-      <c r="K69">
-        <v>0.59</v>
-      </c>
-      <c r="L69">
-        <v>0.31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3428,42 +3428,42 @@
         </is>
       </c>
       <c r="D70">
-        <v>6.44</v>
+        <v>14.6</v>
       </c>
       <c r="E70">
-        <v>7.67</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>84.89</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H70">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I70">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J70">
+        <v>0.26</v>
+      </c>
+      <c r="K70">
         <v>0.46</v>
       </c>
-      <c r="J70">
-        <v>0.12</v>
-      </c>
-      <c r="K70">
-        <v>0.22</v>
-      </c>
       <c r="L70">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3472,42 +3472,42 @@
         </is>
       </c>
       <c r="D71">
-        <v>22.7</v>
+        <v>23.62</v>
       </c>
       <c r="E71">
-        <v>5.3</v>
+        <v>4.25</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>71</v>
+        <v>71.12</v>
       </c>
       <c r="H71">
+        <v>0.25</v>
+      </c>
+      <c r="I71">
+        <v>0.85</v>
+      </c>
+      <c r="J71">
+        <v>0.39</v>
+      </c>
+      <c r="K71">
+        <v>0.57</v>
+      </c>
+      <c r="L71">
         <v>0.24</v>
-      </c>
-      <c r="I71">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J71">
-        <v>0.37</v>
-      </c>
-      <c r="K71">
-        <v>0.55</v>
-      </c>
-      <c r="L71">
-        <v>0.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3516,42 +3516,42 @@
         </is>
       </c>
       <c r="D72">
-        <v>31.2</v>
+        <v>32.8</v>
       </c>
       <c r="E72">
-        <v>9.5</v>
+        <v>5.2</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>58.3</v>
+        <v>61</v>
       </c>
       <c r="H72">
         <v>0.35</v>
       </c>
       <c r="I72">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="J72">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="K72">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="L72">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>CO1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3560,31 +3560,31 @@
         </is>
       </c>
       <c r="D73">
-        <v>13.5</v>
+        <v>11.7</v>
       </c>
       <c r="E73">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>82.2</v>
+        <v>85.5</v>
       </c>
       <c r="H73">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I73">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="J73">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K73">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="L73">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="74">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3604,31 +3604,31 @@
         </is>
       </c>
       <c r="D74">
-        <v>24.5</v>
+        <v>26.75</v>
       </c>
       <c r="E74">
-        <v>3.3</v>
+        <v>9.25</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>71.2</v>
+        <v>63</v>
       </c>
       <c r="H74">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I74">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="J74">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="K74">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="L74">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="75">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3648,31 +3648,31 @@
         </is>
       </c>
       <c r="D75">
-        <v>34.67</v>
+        <v>40</v>
       </c>
       <c r="E75">
-        <v>4.11</v>
+        <v>15</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>60.22</v>
+        <v>44</v>
       </c>
       <c r="H75">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="I75">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="J75">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="K75">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="L75">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
@@ -3683,40 +3683,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D76">
-        <v>14.6</v>
+        <v>25.1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>30.8</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>83.40000000000001</v>
+        <v>43.1</v>
       </c>
       <c r="H76">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="I76">
-        <v>0.9399999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="J76">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="K76">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="L76">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77">
@@ -3727,40 +3727,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D77">
-        <v>23.62</v>
+        <v>34.5</v>
       </c>
       <c r="E77">
-        <v>4.25</v>
+        <v>20.3</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>71.12</v>
+        <v>44.2</v>
       </c>
       <c r="H77">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="I77">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="J77">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="K77">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="L77">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="78">
@@ -3771,40 +3771,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D78">
-        <v>32.8</v>
+        <v>12.4</v>
       </c>
       <c r="E78">
-        <v>5.2</v>
+        <v>42.9</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>61</v>
+        <v>43.7</v>
       </c>
       <c r="H78">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="I78">
-        <v>0.86</v>
+        <v>0.22</v>
       </c>
       <c r="J78">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="K78">
-        <v>0.67</v>
+        <v>0.22</v>
       </c>
       <c r="L78">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="79">
@@ -3815,40 +3815,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D79">
-        <v>11.7</v>
+        <v>21.8</v>
       </c>
       <c r="E79">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>85.5</v>
+        <v>74</v>
       </c>
       <c r="H79">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I79">
         <v>0.87</v>
       </c>
       <c r="J79">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="K79">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L79">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="80">
@@ -3859,40 +3859,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D80">
-        <v>25.1</v>
+        <v>29.1</v>
       </c>
       <c r="E80">
-        <v>30.8</v>
+        <v>2.4</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>43.1</v>
+        <v>67.5</v>
       </c>
       <c r="H80">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="I80">
+        <v>0.92</v>
+      </c>
+      <c r="J80">
         <v>0.45</v>
       </c>
-      <c r="J80">
-        <v>0.4</v>
-      </c>
       <c r="K80">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="L80">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="81">
@@ -3903,40 +3903,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D81">
-        <v>34.5</v>
+        <v>11.2</v>
       </c>
       <c r="E81">
-        <v>20.3</v>
+        <v>4</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>44.2</v>
+        <v>83.8</v>
       </c>
       <c r="H81">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
       <c r="I81">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="J81">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="K81">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
       <c r="L81">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="82">
@@ -3947,40 +3947,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D82">
-        <v>12.4</v>
+        <v>17.5</v>
       </c>
       <c r="E82">
-        <v>42.9</v>
+        <v>2.2</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>43.7</v>
+        <v>79.3</v>
       </c>
       <c r="H82">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I82">
-        <v>0.22</v>
+        <v>0.89</v>
       </c>
       <c r="J82">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="K82">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="L82">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="83">
@@ -3991,34 +3991,34 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D83">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="E83">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>74</v>
+        <v>75.8</v>
       </c>
       <c r="H83">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I83">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="J83">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="K83">
         <v>0.5600000000000001</v>
@@ -4035,40 +4035,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D84">
-        <v>29.1</v>
+        <v>10.1</v>
       </c>
       <c r="E84">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>67.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H84">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I84">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="J84">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="K84">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="L84">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="85">
@@ -4079,40 +4079,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D85">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>83.8</v>
+        <v>99</v>
       </c>
       <c r="H85">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4123,40 +4123,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D86">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>79.3</v>
+        <v>99</v>
       </c>
       <c r="H86">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4167,40 +4167,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D87">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>75.8</v>
+        <v>99</v>
       </c>
       <c r="H87">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4211,40 +4211,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D88">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>87.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="H88">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4255,12 +4255,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D89">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D90">
@@ -4343,40 +4343,40 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>99</v>
+        <v>56.3</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="92">
@@ -4387,40 +4387,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>37.7</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>99</v>
+        <v>41.8</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="93">
@@ -4431,40 +4431,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="94">
@@ -4475,40 +4475,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>15.11</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>12.56</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>99</v>
+        <v>71.33</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="95">
@@ -4519,40 +4519,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D95">
-        <v>27.8</v>
+        <v>35.9</v>
       </c>
       <c r="E95">
-        <v>14.9</v>
+        <v>11.2</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>56.3</v>
+        <v>51.9</v>
       </c>
       <c r="H95">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="I95">
+        <v>0.76</v>
+      </c>
+      <c r="J95">
+        <v>0.53</v>
+      </c>
+      <c r="K95">
         <v>0.65</v>
       </c>
-      <c r="J95">
-        <v>0.44</v>
-      </c>
-      <c r="K95">
-        <v>0.55</v>
-      </c>
       <c r="L95">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="96">
@@ -4563,40 +4563,40 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D96">
-        <v>37.7</v>
+        <v>1.4</v>
       </c>
       <c r="E96">
-        <v>19.5</v>
+        <v>17.9</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>41.8</v>
+        <v>79.7</v>
       </c>
       <c r="H96">
-        <v>0.47</v>
+        <v>0.02</v>
       </c>
       <c r="I96">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J96">
-        <v>0.55</v>
+        <v>0.03</v>
       </c>
       <c r="K96">
-        <v>0.61</v>
+        <v>0.04</v>
       </c>
       <c r="L96">
-        <v>0.38</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="97">
@@ -4607,40 +4607,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D97">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="H97">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4651,40 +4651,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D98">
-        <v>26.75</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H98">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4695,303 +4695,39 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D99">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H99">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="D100">
-        <v>15.11</v>
-      </c>
-      <c r="E100">
-        <v>12.56</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>71.33</v>
-      </c>
-      <c r="H100">
-        <v>0.17</v>
-      </c>
-      <c r="I100">
-        <v>0.55</v>
-      </c>
-      <c r="J100">
-        <v>0.26</v>
-      </c>
-      <c r="K100">
-        <v>0.38</v>
-      </c>
-      <c r="L100">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="D101">
-        <v>35.9</v>
-      </c>
-      <c r="E101">
-        <v>11.2</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>51.9</v>
-      </c>
-      <c r="H101">
-        <v>0.41</v>
-      </c>
-      <c r="I101">
-        <v>0.76</v>
-      </c>
-      <c r="J101">
-        <v>0.53</v>
-      </c>
-      <c r="K101">
-        <v>0.65</v>
-      </c>
-      <c r="L101">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="D102">
-        <v>1.4</v>
-      </c>
-      <c r="E102">
-        <v>17.9</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>79.7</v>
-      </c>
-      <c r="H102">
-        <v>0.02</v>
-      </c>
-      <c r="I102">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J102">
-        <v>0.03</v>
-      </c>
-      <c r="K102">
-        <v>0.04</v>
-      </c>
-      <c r="L102">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>99</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>99</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>99</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
         <v>0</v>
       </c>
     </row>

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3604,31 +3604,31 @@
         </is>
       </c>
       <c r="D74">
-        <v>26.75</v>
+        <v>27.9</v>
       </c>
       <c r="E74">
-        <v>9.25</v>
+        <v>13.7</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>63</v>
+        <v>57.4</v>
       </c>
       <c r="H74">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="I74">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="J74">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="K74">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="L74">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="75">
@@ -3648,31 +3648,31 @@
         </is>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>38.5</v>
       </c>
       <c r="E75">
-        <v>15</v>
+        <v>17.6</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>44</v>
+        <v>42.9</v>
       </c>
       <c r="H75">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="I75">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J75">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K75">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="L75">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="76">
@@ -3683,40 +3683,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D76">
-        <v>25.1</v>
+        <v>13.4</v>
       </c>
       <c r="E76">
-        <v>30.8</v>
+        <v>21.3</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>43.1</v>
+        <v>64.3</v>
       </c>
       <c r="H76">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="I76">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="J76">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="K76">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="L76">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="77">
@@ -3732,35 +3732,35 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D77">
-        <v>34.5</v>
+        <v>25.1</v>
       </c>
       <c r="E77">
-        <v>20.3</v>
+        <v>30.8</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>44.2</v>
+        <v>43.1</v>
       </c>
       <c r="H77">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="I77">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="J77">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="K77">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="L77">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="78">
@@ -3776,35 +3776,35 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D78">
-        <v>12.4</v>
+        <v>34.5</v>
       </c>
       <c r="E78">
-        <v>42.9</v>
+        <v>20.3</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>43.7</v>
+        <v>44.2</v>
       </c>
       <c r="H78">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I78">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
       <c r="J78">
-        <v>0.22</v>
+        <v>0.52</v>
       </c>
       <c r="K78">
-        <v>0.22</v>
+        <v>0.58</v>
       </c>
       <c r="L78">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="79">
@@ -3815,40 +3815,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D79">
-        <v>21.8</v>
+        <v>12.4</v>
       </c>
       <c r="E79">
-        <v>3.2</v>
+        <v>42.9</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>74</v>
+        <v>43.7</v>
       </c>
       <c r="H79">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I79">
-        <v>0.87</v>
+        <v>0.22</v>
       </c>
       <c r="J79">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="K79">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="L79">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="80">
@@ -3864,35 +3864,35 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D80">
-        <v>29.1</v>
+        <v>21.8</v>
       </c>
       <c r="E80">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>67.5</v>
+        <v>74</v>
       </c>
       <c r="H80">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I80">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="J80">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="K80">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L80">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="81">
@@ -3908,35 +3908,35 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D81">
-        <v>11.2</v>
+        <v>29.1</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>83.8</v>
+        <v>67.5</v>
       </c>
       <c r="H81">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="I81">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="J81">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="K81">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="L81">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="82">
@@ -3947,40 +3947,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D82">
-        <v>17.5</v>
+        <v>11.2</v>
       </c>
       <c r="E82">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>79.3</v>
+        <v>83.8</v>
       </c>
       <c r="H82">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I82">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="J82">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K82">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="L82">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="83">
@@ -3996,35 +3996,35 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D83">
-        <v>21.3</v>
+        <v>17.5</v>
       </c>
       <c r="E83">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>75.8</v>
+        <v>79.3</v>
       </c>
       <c r="H83">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I83">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="J83">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="K83">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="L83">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="84">
@@ -4040,35 +4040,35 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D84">
-        <v>10.1</v>
+        <v>21.3</v>
       </c>
       <c r="E84">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>87.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="H84">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I84">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="J84">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="K84">
-        <v>0.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L84">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="85">
@@ -4079,40 +4079,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>99</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="86">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D86">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D87">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D88">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D89">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D90">
@@ -4343,40 +4343,40 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D91">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>56.3</v>
+        <v>99</v>
       </c>
       <c r="H91">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4392,35 +4392,35 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D92">
-        <v>37.7</v>
+        <v>27.8</v>
       </c>
       <c r="E92">
-        <v>19.5</v>
+        <v>14.9</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>41.8</v>
+        <v>56.3</v>
       </c>
       <c r="H92">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="I92">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="J92">
+        <v>0.44</v>
+      </c>
+      <c r="K92">
         <v>0.55</v>
       </c>
-      <c r="K92">
-        <v>0.61</v>
-      </c>
       <c r="L92">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="93">
@@ -4436,35 +4436,35 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D93">
-        <v>13.3</v>
+        <v>37.7</v>
       </c>
       <c r="E93">
-        <v>8.699999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>77</v>
+        <v>41.8</v>
       </c>
       <c r="H93">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="I93">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="J93">
-        <v>0.24</v>
+        <v>0.55</v>
       </c>
       <c r="K93">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="L93">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="94">
@@ -4475,40 +4475,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D94">
-        <v>15.11</v>
+        <v>13.3</v>
       </c>
       <c r="E94">
-        <v>12.56</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>71.33</v>
+        <v>77</v>
       </c>
       <c r="H94">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I94">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="J94">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="K94">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="L94">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="95">
@@ -4524,35 +4524,35 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D95">
-        <v>35.9</v>
+        <v>15.11</v>
       </c>
       <c r="E95">
-        <v>11.2</v>
+        <v>12.56</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>51.9</v>
+        <v>71.33</v>
       </c>
       <c r="H95">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="I95">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="J95">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="K95">
-        <v>0.65</v>
+        <v>0.38</v>
       </c>
       <c r="L95">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="96">
@@ -4568,35 +4568,35 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D96">
-        <v>1.4</v>
+        <v>35.9</v>
       </c>
       <c r="E96">
-        <v>17.9</v>
+        <v>11.2</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>79.7</v>
+        <v>51.9</v>
       </c>
       <c r="H96">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
       <c r="I96">
-        <v>0.07000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="J96">
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="K96">
-        <v>0.04</v>
+        <v>0.65</v>
       </c>
       <c r="L96">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="97">
@@ -4607,40 +4607,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>99</v>
+        <v>79.7</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="98">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D98">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D99">
@@ -4728,6 +4728,50 @@
         <v>0</v>
       </c>
       <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>99</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
         <v>0</v>
       </c>
     </row>

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1492,31 +1492,31 @@
         </is>
       </c>
       <c r="D26">
-        <v>20.6</v>
+        <v>29.2</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>38.7</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>67.40000000000001</v>
+        <v>31.1</v>
       </c>
       <c r="H26">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="I26">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="J26">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="K26">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L26">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="27">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1536,31 +1536,31 @@
         </is>
       </c>
       <c r="D27">
-        <v>29.6</v>
+        <v>38.8</v>
       </c>
       <c r="E27">
-        <v>14.2</v>
+        <v>30.5</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>55.2</v>
+        <v>29.7</v>
       </c>
       <c r="H27">
-        <v>0.35</v>
+        <v>0.57</v>
       </c>
       <c r="I27">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J27">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K27">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L27">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="28">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1580,31 +1580,31 @@
         </is>
       </c>
       <c r="D28">
-        <v>10.7</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>6.7</v>
+        <v>47.6</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>81.59999999999999</v>
+        <v>35.4</v>
       </c>
       <c r="H28">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="I28">
-        <v>0.61</v>
+        <v>0.25</v>
       </c>
       <c r="J28">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="K28">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="L28">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="29">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="D29">
-        <v>14.6</v>
+        <v>20.6</v>
       </c>
       <c r="E29">
-        <v>13.8</v>
+        <v>11</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>70.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H29">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I29">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="J29">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="K29">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="L29">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="30">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1668,31 +1668,31 @@
         </is>
       </c>
       <c r="D30">
-        <v>20.6</v>
+        <v>29.6</v>
       </c>
       <c r="E30">
-        <v>16.3</v>
+        <v>14.2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>62.1</v>
+        <v>55.2</v>
       </c>
       <c r="H30">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I30">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="J30">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="K30">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="L30">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="D31">
-        <v>7.6</v>
+        <v>10.7</v>
       </c>
       <c r="E31">
-        <v>9.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1724,19 +1724,19 @@
         <v>81.59999999999999</v>
       </c>
       <c r="H31">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I31">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="J31">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="L31">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="32">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="D32">
-        <v>19.4</v>
+        <v>14.6</v>
       </c>
       <c r="E32">
-        <v>9.199999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>70.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H32">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I32">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="J32">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="K32">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="L32">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1800,31 +1800,31 @@
         </is>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>20.6</v>
       </c>
       <c r="E33">
-        <v>12.3</v>
+        <v>16.3</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>58.7</v>
+        <v>62.1</v>
       </c>
       <c r="H33">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="I33">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J33">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="K33">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="L33">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="34">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1844,42 +1844,42 @@
         </is>
       </c>
       <c r="D34">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="E34">
-        <v>4.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>83.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H34">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I34">
-        <v>0.6899999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="J34">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="K34">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="L34">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1888,42 +1888,42 @@
         </is>
       </c>
       <c r="D35">
-        <v>24.9</v>
+        <v>19.4</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>74.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H35">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="J35">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="K35">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="L35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1932,42 +1932,42 @@
         </is>
       </c>
       <c r="D36">
-        <v>37.44</v>
+        <v>28</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>61.56</v>
+        <v>58.7</v>
       </c>
       <c r="H36">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J36">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L36">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1976,31 +1976,31 @@
         </is>
       </c>
       <c r="D37">
-        <v>14.9</v>
+        <v>10.4</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H37">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J37">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="K37">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="L37">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="38">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2020,31 +2020,31 @@
         </is>
       </c>
       <c r="D38">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="E38">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>73.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H38">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I38">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="K38">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="L38">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="D39">
-        <v>34.4</v>
+        <v>37.44</v>
       </c>
       <c r="E39">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>61.1</v>
+        <v>61.56</v>
       </c>
       <c r="H39">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="I39">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="K39">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L39">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="40">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="D40">
-        <v>13.3</v>
+        <v>14.9</v>
       </c>
       <c r="E40">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>83.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H40">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I40">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K40">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="L40">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="D41">
-        <v>27.1</v>
+        <v>23.4</v>
       </c>
       <c r="E41">
-        <v>21.6</v>
+        <v>2.1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>50.3</v>
+        <v>73.5</v>
       </c>
       <c r="H41">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="I41">
-        <v>0.5600000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="J41">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="L41">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="42">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="D42">
-        <v>40.5</v>
+        <v>34.4</v>
       </c>
       <c r="E42">
-        <v>10.7</v>
+        <v>3.5</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>47.8</v>
+        <v>61.1</v>
       </c>
       <c r="H42">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="I42">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="J42">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="K42">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="L42">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="43">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2240,31 +2240,31 @@
         </is>
       </c>
       <c r="D43">
-        <v>16.8</v>
+        <v>13.3</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>76.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H43">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I43">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="J43">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="K43">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="L43">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="44">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2284,31 +2284,31 @@
         </is>
       </c>
       <c r="D44">
-        <v>25.6</v>
+        <v>27.1</v>
       </c>
       <c r="E44">
-        <v>31.8</v>
+        <v>21.6</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>41.6</v>
+        <v>50.3</v>
       </c>
       <c r="H44">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="I44">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J44">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="K44">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="45">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2328,31 +2328,31 @@
         </is>
       </c>
       <c r="D45">
-        <v>37.2</v>
+        <v>40.5</v>
       </c>
       <c r="E45">
-        <v>25.5</v>
+        <v>10.7</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>36.3</v>
+        <v>47.8</v>
       </c>
       <c r="H45">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="I45">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="J45">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="K45">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L45">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="46">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2372,31 +2372,31 @@
         </is>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="E46">
-        <v>35.9</v>
+        <v>6</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>48.1</v>
+        <v>76.2</v>
       </c>
       <c r="H46">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I46">
+        <v>0.74</v>
+      </c>
+      <c r="J46">
         <v>0.29</v>
       </c>
-      <c r="J46">
-        <v>0.26</v>
-      </c>
       <c r="K46">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="L46">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="47">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2416,31 +2416,31 @@
         </is>
       </c>
       <c r="D47">
-        <v>23.8</v>
+        <v>25.6</v>
       </c>
       <c r="E47">
-        <v>14.7</v>
+        <v>31.8</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>60.5</v>
+        <v>41.6</v>
       </c>
       <c r="H47">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="I47">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="J47">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="L47">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2460,31 +2460,31 @@
         </is>
       </c>
       <c r="D48">
-        <v>34.1</v>
+        <v>37.2</v>
       </c>
       <c r="E48">
-        <v>14.5</v>
+        <v>25.5</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>50.4</v>
+        <v>36.3</v>
       </c>
       <c r="H48">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="I48">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="J48">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="K48">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="L48">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="49">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2504,31 +2504,31 @@
         </is>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>12.3</v>
+        <v>35.9</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>72.7</v>
+        <v>48.1</v>
       </c>
       <c r="H49">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I49">
-        <v>0.53</v>
+        <v>0.29</v>
       </c>
       <c r="J49">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K49">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="L49">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="50">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2548,31 +2548,31 @@
         </is>
       </c>
       <c r="D50">
-        <v>22.6</v>
+        <v>23.8</v>
       </c>
       <c r="E50">
-        <v>7.9</v>
+        <v>14.7</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>68.5</v>
+        <v>60.5</v>
       </c>
       <c r="H50">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I50">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="J50">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="K50">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="51">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2592,31 +2592,31 @@
         </is>
       </c>
       <c r="D51">
-        <v>32.8</v>
+        <v>34.1</v>
       </c>
       <c r="E51">
-        <v>8.300000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>57.9</v>
+        <v>50.4</v>
       </c>
       <c r="H51">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="I51">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J51">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="K51">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="L51">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="52">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2636,31 +2636,31 @@
         </is>
       </c>
       <c r="D52">
-        <v>13.1</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>80</v>
+        <v>72.7</v>
       </c>
       <c r="H52">
+        <v>0.16</v>
+      </c>
+      <c r="I52">
+        <v>0.53</v>
+      </c>
+      <c r="J52">
+        <v>0.25</v>
+      </c>
+      <c r="K52">
+        <v>0.36</v>
+      </c>
+      <c r="L52">
         <v>0.14</v>
-      </c>
-      <c r="I52">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J52">
-        <v>0.23</v>
-      </c>
-      <c r="K52">
-        <v>0.39</v>
-      </c>
-      <c r="L52">
-        <v>0.13</v>
       </c>
     </row>
     <row r="53">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2680,31 +2680,31 @@
         </is>
       </c>
       <c r="D53">
-        <v>24.9</v>
+        <v>22.6</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>74.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="H53">
         <v>0.25</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="J53">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="K53">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="L53">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="54">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2724,31 +2724,31 @@
         </is>
       </c>
       <c r="D54">
-        <v>37.1</v>
+        <v>32.8</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>61.9</v>
+        <v>57.9</v>
       </c>
       <c r="H54">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J54">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="L54">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="55">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2768,31 +2768,31 @@
         </is>
       </c>
       <c r="D55">
-        <v>14.9</v>
+        <v>13.1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>84.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="H55">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J55">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="K55">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="L55">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="56">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2812,31 +2812,31 @@
         </is>
       </c>
       <c r="D56">
-        <v>29.6</v>
+        <v>24.9</v>
       </c>
       <c r="E56">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>67.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H56">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I56">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="K56">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="L56">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="57">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2856,31 +2856,31 @@
         </is>
       </c>
       <c r="D57">
-        <v>43.7</v>
+        <v>37.1</v>
       </c>
       <c r="E57">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>51.8</v>
+        <v>61.9</v>
       </c>
       <c r="H57">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="I57">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="K57">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="L57">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="58">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2900,31 +2900,31 @@
         </is>
       </c>
       <c r="D58">
-        <v>17.2</v>
+        <v>14.9</v>
       </c>
       <c r="E58">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>79.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H58">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I58">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="K58">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="L58">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="59">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2944,31 +2944,31 @@
         </is>
       </c>
       <c r="D59">
-        <v>25.2</v>
+        <v>29.6</v>
       </c>
       <c r="E59">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>66.5</v>
+        <v>67.3</v>
       </c>
       <c r="H59">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I59">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="J59">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="K59">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="L59">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2988,31 +2988,31 @@
         </is>
       </c>
       <c r="D60">
-        <v>36.5</v>
+        <v>43.7</v>
       </c>
       <c r="E60">
-        <v>10.9</v>
+        <v>3.5</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="H60">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="I60">
+        <v>0.93</v>
+      </c>
+      <c r="J60">
+        <v>0.61</v>
+      </c>
+      <c r="K60">
         <v>0.77</v>
       </c>
-      <c r="J60">
-        <v>0.54</v>
-      </c>
-      <c r="K60">
-        <v>0.66</v>
-      </c>
       <c r="L60">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="61">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3032,10 +3032,10 @@
         </is>
       </c>
       <c r="D61">
-        <v>14.5</v>
+        <v>17.2</v>
       </c>
       <c r="E61">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3044,19 +3044,19 @@
         <v>79.7</v>
       </c>
       <c r="H61">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I61">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="J61">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="K61">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="L61">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="62">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3076,31 +3076,31 @@
         </is>
       </c>
       <c r="D62">
-        <v>17.5</v>
+        <v>26.9</v>
       </c>
       <c r="E62">
-        <v>9.199999999999999</v>
+        <v>43.5</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>72.3</v>
+        <v>28.6</v>
       </c>
       <c r="H62">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="I62">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
       <c r="J62">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="K62">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="L62">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="63">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3120,31 +3120,31 @@
         </is>
       </c>
       <c r="D63">
-        <v>30.4</v>
+        <v>40.2</v>
       </c>
       <c r="E63">
-        <v>12.7</v>
+        <v>35.1</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>55.9</v>
+        <v>23.7</v>
       </c>
       <c r="H63">
-        <v>0.35</v>
+        <v>0.63</v>
       </c>
       <c r="I63">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="J63">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="K63">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="L63">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="64">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3164,31 +3164,31 @@
         </is>
       </c>
       <c r="D64">
-        <v>6.44</v>
+        <v>15.5</v>
       </c>
       <c r="E64">
-        <v>7.67</v>
+        <v>50.1</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>84.89</v>
+        <v>33.4</v>
       </c>
       <c r="H64">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I64">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="J64">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="K64">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="L64">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="65">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3208,31 +3208,31 @@
         </is>
       </c>
       <c r="D65">
-        <v>22.7</v>
+        <v>25.2</v>
       </c>
       <c r="E65">
-        <v>5.3</v>
+        <v>7.3</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>71</v>
+        <v>66.5</v>
       </c>
       <c r="H65">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I65">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="J65">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="K65">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="L65">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3252,31 +3252,31 @@
         </is>
       </c>
       <c r="D66">
-        <v>31.2</v>
+        <v>36.5</v>
       </c>
       <c r="E66">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>58.3</v>
+        <v>51.6</v>
       </c>
       <c r="H66">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="I66">
         <v>0.77</v>
       </c>
       <c r="J66">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="K66">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="L66">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="67">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3296,42 +3296,42 @@
         </is>
       </c>
       <c r="D67">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="E67">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>82.2</v>
+        <v>79.7</v>
       </c>
       <c r="H67">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I67">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="J67">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K67">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="L67">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3340,42 +3340,42 @@
         </is>
       </c>
       <c r="D68">
-        <v>24.5</v>
+        <v>17.5</v>
       </c>
       <c r="E68">
-        <v>3.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>71.2</v>
+        <v>72.3</v>
       </c>
       <c r="H68">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I68">
-        <v>0.88</v>
+        <v>0.66</v>
       </c>
       <c r="J68">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K68">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
       <c r="L68">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3384,42 +3384,42 @@
         </is>
       </c>
       <c r="D69">
-        <v>34.67</v>
+        <v>30.4</v>
       </c>
       <c r="E69">
-        <v>4.11</v>
+        <v>12.7</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>60.22</v>
+        <v>55.9</v>
       </c>
       <c r="H69">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I69">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="J69">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="K69">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="L69">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3428,42 +3428,42 @@
         </is>
       </c>
       <c r="D70">
-        <v>14.6</v>
+        <v>6.44</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>7.67</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>83.40000000000001</v>
+        <v>84.89</v>
       </c>
       <c r="H70">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I70">
-        <v>0.9399999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="J70">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="K70">
-        <v>0.46</v>
+        <v>0.22</v>
       </c>
       <c r="L70">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3472,42 +3472,42 @@
         </is>
       </c>
       <c r="D71">
-        <v>23.62</v>
+        <v>22.7</v>
       </c>
       <c r="E71">
-        <v>4.25</v>
+        <v>5.3</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>71.12</v>
+        <v>71</v>
       </c>
       <c r="H71">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I71">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J71">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="K71">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="L71">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3516,42 +3516,42 @@
         </is>
       </c>
       <c r="D72">
-        <v>32.8</v>
+        <v>31.2</v>
       </c>
       <c r="E72">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>61</v>
+        <v>58.3</v>
       </c>
       <c r="H72">
         <v>0.35</v>
       </c>
       <c r="I72">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="J72">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="K72">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="L72">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3560,31 +3560,31 @@
         </is>
       </c>
       <c r="D73">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="E73">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>85.5</v>
+        <v>82.2</v>
       </c>
       <c r="H73">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I73">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="J73">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="K73">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="L73">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="74">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3604,31 +3604,31 @@
         </is>
       </c>
       <c r="D74">
-        <v>27.9</v>
+        <v>24.5</v>
       </c>
       <c r="E74">
-        <v>13.7</v>
+        <v>3.3</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>57.4</v>
+        <v>71.2</v>
       </c>
       <c r="H74">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I74">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="J74">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="K74">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="L74">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3648,31 +3648,31 @@
         </is>
       </c>
       <c r="D75">
-        <v>38.5</v>
+        <v>34.67</v>
       </c>
       <c r="E75">
-        <v>17.6</v>
+        <v>4.11</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>42.9</v>
+        <v>60.22</v>
       </c>
       <c r="H75">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="I75">
+        <v>0.89</v>
+      </c>
+      <c r="J75">
+        <v>0.52</v>
+      </c>
+      <c r="K75">
         <v>0.6899999999999999</v>
       </c>
-      <c r="J75">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K75">
-        <v>0.63</v>
-      </c>
       <c r="L75">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="76">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3692,31 +3692,31 @@
         </is>
       </c>
       <c r="D76">
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="E76">
-        <v>21.3</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>64.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H76">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I76">
-        <v>0.39</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J76">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K76">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="L76">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="77">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3736,31 +3736,31 @@
         </is>
       </c>
       <c r="D77">
-        <v>25.1</v>
+        <v>23.62</v>
       </c>
       <c r="E77">
-        <v>30.8</v>
+        <v>4.25</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>43.1</v>
+        <v>71.12</v>
       </c>
       <c r="H77">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="I77">
-        <v>0.45</v>
+        <v>0.85</v>
       </c>
       <c r="J77">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="K77">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="L77">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="78">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3780,31 +3780,31 @@
         </is>
       </c>
       <c r="D78">
-        <v>34.5</v>
+        <v>32.8</v>
       </c>
       <c r="E78">
-        <v>20.3</v>
+        <v>5.2</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>44.2</v>
+        <v>61</v>
       </c>
       <c r="H78">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="I78">
-        <v>0.63</v>
+        <v>0.86</v>
       </c>
       <c r="J78">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="L78">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="79">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3824,31 +3824,31 @@
         </is>
       </c>
       <c r="D79">
-        <v>12.4</v>
+        <v>11.7</v>
       </c>
       <c r="E79">
-        <v>42.9</v>
+        <v>1.8</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>43.7</v>
+        <v>85.5</v>
       </c>
       <c r="H79">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I79">
-        <v>0.22</v>
+        <v>0.87</v>
       </c>
       <c r="J79">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K79">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
       <c r="L79">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="80">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3868,31 +3868,31 @@
         </is>
       </c>
       <c r="D80">
-        <v>21.8</v>
+        <v>27.9</v>
       </c>
       <c r="E80">
-        <v>3.2</v>
+        <v>13.7</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>74</v>
+        <v>57.4</v>
       </c>
       <c r="H80">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="I80">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="J80">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="K80">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="L80">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="81">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3912,31 +3912,31 @@
         </is>
       </c>
       <c r="D81">
-        <v>29.1</v>
+        <v>38.5</v>
       </c>
       <c r="E81">
-        <v>2.4</v>
+        <v>17.6</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>67.5</v>
+        <v>42.9</v>
       </c>
       <c r="H81">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="I81">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J81">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K81">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="L81">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="82">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3956,31 +3956,31 @@
         </is>
       </c>
       <c r="D82">
-        <v>11.2</v>
+        <v>13.4</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>21.3</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>83.8</v>
+        <v>64.3</v>
       </c>
       <c r="H82">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I82">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="J82">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="K82">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="L82">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="83">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4000,31 +4000,31 @@
         </is>
       </c>
       <c r="D83">
-        <v>17.5</v>
+        <v>25.1</v>
       </c>
       <c r="E83">
-        <v>2.2</v>
+        <v>30.8</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>79.3</v>
+        <v>43.1</v>
       </c>
       <c r="H83">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="I83">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
       <c r="J83">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K83">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="L83">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="84">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4044,31 +4044,31 @@
         </is>
       </c>
       <c r="D84">
-        <v>21.3</v>
+        <v>34.5</v>
       </c>
       <c r="E84">
-        <v>1.9</v>
+        <v>20.3</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>75.8</v>
+        <v>44.2</v>
       </c>
       <c r="H84">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I84">
-        <v>0.92</v>
+        <v>0.63</v>
       </c>
       <c r="J84">
+        <v>0.52</v>
+      </c>
+      <c r="K84">
+        <v>0.58</v>
+      </c>
+      <c r="L84">
         <v>0.35</v>
-      </c>
-      <c r="K84">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L84">
-        <v>0.22</v>
       </c>
     </row>
     <row r="85">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4088,31 +4088,31 @@
         </is>
       </c>
       <c r="D85">
-        <v>10.1</v>
+        <v>12.4</v>
       </c>
       <c r="E85">
-        <v>1.5</v>
+        <v>42.9</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>87.40000000000001</v>
+        <v>43.7</v>
       </c>
       <c r="H85">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I85">
-        <v>0.87</v>
+        <v>0.22</v>
       </c>
       <c r="J85">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="K85">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="L85">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="86">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="87">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4176,31 +4176,31 @@
         </is>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>99</v>
+        <v>67.5</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="88">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4220,31 +4220,31 @@
         </is>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>99</v>
+        <v>83.8</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="89">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4264,31 +4264,31 @@
         </is>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>99</v>
+        <v>79.3</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="90">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4308,31 +4308,31 @@
         </is>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>99</v>
+        <v>75.8</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="91">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4352,31 +4352,31 @@
         </is>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>99</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4396,31 +4396,31 @@
         </is>
       </c>
       <c r="D92">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>56.3</v>
+        <v>99</v>
       </c>
       <c r="H92">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4440,31 +4440,31 @@
         </is>
       </c>
       <c r="D93">
-        <v>37.7</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>41.8</v>
+        <v>99</v>
       </c>
       <c r="H93">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4484,31 +4484,31 @@
         </is>
       </c>
       <c r="D94">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="H94">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4528,31 +4528,31 @@
         </is>
       </c>
       <c r="D95">
-        <v>15.11</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>12.56</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>71.33</v>
+        <v>99</v>
       </c>
       <c r="H95">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4572,31 +4572,31 @@
         </is>
       </c>
       <c r="D96">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>51.9</v>
+        <v>99</v>
       </c>
       <c r="H96">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4616,31 +4616,31 @@
         </is>
       </c>
       <c r="D97">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>79.7</v>
+        <v>99</v>
       </c>
       <c r="H97">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4660,31 +4660,31 @@
         </is>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>99</v>
+        <v>56.6</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="99">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4704,31 +4704,31 @@
         </is>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>99</v>
+        <v>53.5</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="100">
@@ -4739,39 +4739,435 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>Metabuli</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>8.6</v>
+      </c>
+      <c r="E100">
+        <v>30.9</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>59.5</v>
+      </c>
+      <c r="H100">
+        <v>0.13</v>
+      </c>
+      <c r="I100">
+        <v>0.22</v>
+      </c>
+      <c r="J100">
+        <v>0.16</v>
+      </c>
+      <c r="K100">
+        <v>0.19</v>
+      </c>
+      <c r="L100">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>27.8</v>
+      </c>
+      <c r="E101">
+        <v>14.9</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>56.3</v>
+      </c>
+      <c r="H101">
+        <v>0.33</v>
+      </c>
+      <c r="I101">
+        <v>0.65</v>
+      </c>
+      <c r="J101">
+        <v>0.44</v>
+      </c>
+      <c r="K101">
+        <v>0.55</v>
+      </c>
+      <c r="L101">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>37.7</v>
+      </c>
+      <c r="E102">
+        <v>19.5</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>41.8</v>
+      </c>
+      <c r="H102">
+        <v>0.47</v>
+      </c>
+      <c r="I102">
+        <v>0.66</v>
+      </c>
+      <c r="J102">
+        <v>0.55</v>
+      </c>
+      <c r="K102">
+        <v>0.61</v>
+      </c>
+      <c r="L102">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>13.3</v>
+      </c>
+      <c r="E103">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>77</v>
+      </c>
+      <c r="H103">
+        <v>0.15</v>
+      </c>
+      <c r="I103">
+        <v>0.6</v>
+      </c>
+      <c r="J103">
+        <v>0.24</v>
+      </c>
+      <c r="K103">
+        <v>0.37</v>
+      </c>
+      <c r="L103">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>15.11</v>
+      </c>
+      <c r="E104">
+        <v>12.56</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>71.33</v>
+      </c>
+      <c r="H104">
+        <v>0.17</v>
+      </c>
+      <c r="I104">
+        <v>0.55</v>
+      </c>
+      <c r="J104">
+        <v>0.26</v>
+      </c>
+      <c r="K104">
+        <v>0.38</v>
+      </c>
+      <c r="L104">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>35.9</v>
+      </c>
+      <c r="E105">
+        <v>11.2</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>51.9</v>
+      </c>
+      <c r="H105">
+        <v>0.41</v>
+      </c>
+      <c r="I105">
+        <v>0.76</v>
+      </c>
+      <c r="J105">
+        <v>0.53</v>
+      </c>
+      <c r="K105">
+        <v>0.65</v>
+      </c>
+      <c r="L105">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>1.4</v>
+      </c>
+      <c r="E106">
+        <v>17.9</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>79.7</v>
+      </c>
+      <c r="H106">
+        <v>0.02</v>
+      </c>
+      <c r="I106">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J106">
+        <v>0.03</v>
+      </c>
+      <c r="K106">
+        <v>0.04</v>
+      </c>
+      <c r="L106">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>99</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>99</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
         <v>99</v>
       </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
         <v>0</v>
       </c>
     </row>

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -5056,31 +5056,31 @@
         </is>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>99</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="108">
@@ -5100,31 +5100,31 @@
         </is>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>99</v>
+        <v>89.5</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="109">
@@ -5144,28 +5144,28 @@
         </is>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>99</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L109">
         <v>0</v>

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -4396,31 +4396,31 @@
         </is>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>99</v>
+        <v>77.2</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="93">
@@ -4440,31 +4440,31 @@
         </is>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>99</v>
+        <v>67.2</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="94">
@@ -4484,31 +4484,31 @@
         </is>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>99</v>
+        <v>87.2</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="95">
@@ -4528,31 +4528,31 @@
         </is>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>99</v>
+        <v>62.6</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="96">
@@ -4572,31 +4572,31 @@
         </is>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>99</v>
+        <v>50.3</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="97">
@@ -4616,31 +4616,31 @@
         </is>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>99</v>
+        <v>80.8</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="98">

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,7 +823,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="D11">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>27.9</v>
+        <v>43.2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.9</v>
+        <v>55.8</v>
       </c>
       <c r="H11">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -867,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -876,31 +876,31 @@
         </is>
       </c>
       <c r="D12">
-        <v>36.8</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>24.6</v>
+        <v>58.7</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>37.6</v>
+        <v>40.3</v>
       </c>
       <c r="H12">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -911,7 +911,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="D13">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>34.4</v>
+        <v>23.3</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>49</v>
+        <v>75.7</v>
       </c>
       <c r="H13">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -955,7 +955,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -964,31 +964,31 @@
         </is>
       </c>
       <c r="D14">
-        <v>25.8</v>
+        <v>10.9</v>
       </c>
       <c r="E14">
-        <v>13.6</v>
+        <v>18.1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>59.6</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H14">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="I14">
-        <v>0.65</v>
+        <v>0.38</v>
       </c>
       <c r="J14">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
-        <v>0.53</v>
+        <v>0.28</v>
       </c>
       <c r="L14">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1008,31 +1008,31 @@
         </is>
       </c>
       <c r="D15">
-        <v>34.7</v>
+        <v>12.9</v>
       </c>
       <c r="E15">
-        <v>11.9</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>52.4</v>
+        <v>58.1</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="I15">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="J15">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="K15">
-        <v>0.63</v>
+        <v>0.27</v>
       </c>
       <c r="L15">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="16">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1052,31 +1052,31 @@
         </is>
       </c>
       <c r="D16">
-        <v>14.7</v>
+        <v>8.1</v>
       </c>
       <c r="E16">
-        <v>13.8</v>
+        <v>8.9</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>70.5</v>
+        <v>82</v>
       </c>
       <c r="H16">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I16">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="J16">
+        <v>0.15</v>
+      </c>
+      <c r="K16">
         <v>0.26</v>
       </c>
-      <c r="K16">
-        <v>0.37</v>
-      </c>
       <c r="L16">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1096,31 +1096,31 @@
         </is>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>27.2</v>
       </c>
       <c r="E17">
-        <v>6.2</v>
+        <v>27.9</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>69.8</v>
+        <v>43.9</v>
       </c>
       <c r="H17">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="I17">
-        <v>0.79</v>
+        <v>0.49</v>
       </c>
       <c r="J17">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="K17">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="L17">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="18">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1140,31 +1140,31 @@
         </is>
       </c>
       <c r="D18">
-        <v>32.1</v>
+        <v>36.8</v>
       </c>
       <c r="E18">
-        <v>5.7</v>
+        <v>24.6</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>61.2</v>
+        <v>37.6</v>
       </c>
       <c r="H18">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="I18">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="J18">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="K18">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="L18">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1184,31 +1184,31 @@
         </is>
       </c>
       <c r="D19">
-        <v>13.5</v>
+        <v>15.6</v>
       </c>
       <c r="E19">
-        <v>4.9</v>
+        <v>34.4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>80.59999999999999</v>
+        <v>49</v>
       </c>
       <c r="H19">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I19">
-        <v>0.73</v>
+        <v>0.31</v>
       </c>
       <c r="J19">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="K19">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="L19">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1228,31 +1228,31 @@
         </is>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>25.8</v>
       </c>
       <c r="E20">
-        <v>3.5</v>
+        <v>13.6</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>65.5</v>
+        <v>59.6</v>
       </c>
       <c r="H20">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I20">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="J20">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="K20">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="L20">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="21">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1272,31 +1272,31 @@
         </is>
       </c>
       <c r="D21">
-        <v>40.1</v>
+        <v>34.7</v>
       </c>
       <c r="E21">
-        <v>4.1</v>
+        <v>11.9</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>54.8</v>
+        <v>52.4</v>
       </c>
       <c r="H21">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I21">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="J21">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="K21">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="L21">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1316,31 +1316,31 @@
         </is>
       </c>
       <c r="D22">
-        <v>16.3</v>
+        <v>14.7</v>
       </c>
       <c r="E22">
-        <v>1.5</v>
+        <v>13.8</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>81.2</v>
+        <v>70.5</v>
       </c>
       <c r="H22">
         <v>0.17</v>
       </c>
       <c r="I22">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
       <c r="J22">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="K22">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="L22">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>61.3</v>
+        <v>69.8</v>
       </c>
       <c r="H23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I23">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J23">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="L23">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="24">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1404,31 +1404,31 @@
         </is>
       </c>
       <c r="D24">
-        <v>40.1</v>
+        <v>32.1</v>
       </c>
       <c r="E24">
-        <v>9.1</v>
+        <v>5.7</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>49.8</v>
+        <v>61.2</v>
       </c>
       <c r="H24">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="I24">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="J24">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="K24">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="L24">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1448,31 +1448,31 @@
         </is>
       </c>
       <c r="D25">
-        <v>16.3</v>
+        <v>13.5</v>
       </c>
       <c r="E25">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>78.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="H25">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I25">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="J25">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="K25">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="L25">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="26">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1492,31 +1492,31 @@
         </is>
       </c>
       <c r="D26">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>38.7</v>
+        <v>3.5</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>31.1</v>
+        <v>65.5</v>
       </c>
       <c r="H26">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="I26">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="J26">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="K26">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="L26">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1536,31 +1536,31 @@
         </is>
       </c>
       <c r="D27">
-        <v>38.8</v>
+        <v>40.1</v>
       </c>
       <c r="E27">
-        <v>30.5</v>
+        <v>4.1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>29.7</v>
+        <v>54.8</v>
       </c>
       <c r="H27">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="I27">
-        <v>0.5600000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="J27">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="K27">
-        <v>0.5600000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="L27">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="28">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1580,28 +1580,28 @@
         </is>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="E28">
-        <v>47.6</v>
+        <v>1.5</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>35.4</v>
+        <v>81.2</v>
       </c>
       <c r="H28">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="I28">
-        <v>0.25</v>
+        <v>0.92</v>
       </c>
       <c r="J28">
         <v>0.28</v>
       </c>
       <c r="K28">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="L28">
         <v>0.16</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="D29">
-        <v>20.6</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>67.40000000000001</v>
+        <v>61.3</v>
       </c>
       <c r="H29">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="I29">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="J29">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="K29">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1668,31 +1668,31 @@
         </is>
       </c>
       <c r="D30">
-        <v>29.6</v>
+        <v>40.1</v>
       </c>
       <c r="E30">
-        <v>14.2</v>
+        <v>9.1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>55.2</v>
+        <v>49.8</v>
       </c>
       <c r="H30">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I30">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="J30">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="K30">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="L30">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="31">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1712,31 +1712,31 @@
         </is>
       </c>
       <c r="D31">
-        <v>10.7</v>
+        <v>16.3</v>
       </c>
       <c r="E31">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>81.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="H31">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I31">
-        <v>0.61</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J31">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="K31">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="L31">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="32">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="D32">
-        <v>14.6</v>
+        <v>29.2</v>
       </c>
       <c r="E32">
-        <v>13.8</v>
+        <v>38.7</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>70.59999999999999</v>
+        <v>31.1</v>
       </c>
       <c r="H32">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="I32">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="J32">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c r="K32">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="L32">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="33">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1800,31 +1800,31 @@
         </is>
       </c>
       <c r="D33">
-        <v>20.6</v>
+        <v>38.8</v>
       </c>
       <c r="E33">
-        <v>16.3</v>
+        <v>30.5</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>62.1</v>
+        <v>29.7</v>
       </c>
       <c r="H33">
-        <v>0.25</v>
+        <v>0.57</v>
       </c>
       <c r="I33">
         <v>0.5600000000000001</v>
       </c>
       <c r="J33">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K33">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L33">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="34">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1844,31 +1844,31 @@
         </is>
       </c>
       <c r="D34">
-        <v>7.6</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>9.800000000000001</v>
+        <v>47.6</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>81.59999999999999</v>
+        <v>35.4</v>
       </c>
       <c r="H34">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="I34">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="J34">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="K34">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="L34">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="35">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1888,31 +1888,31 @@
         </is>
       </c>
       <c r="D35">
-        <v>19.4</v>
+        <v>20.6</v>
       </c>
       <c r="E35">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>70.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H35">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I35">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="J35">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K35">
         <v>0.48</v>
       </c>
       <c r="L35">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="36">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1932,31 +1932,31 @@
         </is>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="E36">
-        <v>12.3</v>
+        <v>14.2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>58.7</v>
+        <v>55.2</v>
       </c>
       <c r="H36">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I36">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="J36">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="K36">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="L36">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1976,28 +1976,28 @@
         </is>
       </c>
       <c r="D37">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="E37">
-        <v>4.7</v>
+        <v>6.7</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>83.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H37">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I37">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="J37">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K37">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="L37">
         <v>0.11</v>
@@ -2006,12 +2006,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2020,42 +2020,42 @@
         </is>
       </c>
       <c r="D38">
-        <v>24.9</v>
+        <v>14.6</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>74.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H38">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="J38">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="K38">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
       <c r="L38">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2064,42 +2064,42 @@
         </is>
       </c>
       <c r="D39">
-        <v>37.44</v>
+        <v>20.6</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>61.56</v>
+        <v>62.1</v>
       </c>
       <c r="H39">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J39">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="K39">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="L39">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2108,42 +2108,42 @@
         </is>
       </c>
       <c r="D40">
-        <v>14.9</v>
+        <v>7.6</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>84.09999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H40">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="J40">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="K40">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="L40">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2152,42 +2152,42 @@
         </is>
       </c>
       <c r="D41">
-        <v>23.4</v>
+        <v>19.4</v>
       </c>
       <c r="E41">
-        <v>2.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>73.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H41">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I41">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="J41">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="K41">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="L41">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2196,42 +2196,42 @@
         </is>
       </c>
       <c r="D42">
-        <v>34.4</v>
+        <v>28</v>
       </c>
       <c r="E42">
-        <v>3.5</v>
+        <v>12.3</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>61.1</v>
+        <v>58.7</v>
       </c>
       <c r="H42">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="I42">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J42">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="K42">
-        <v>0.7</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L42">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16S</t>
+          <t>12S</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2240,31 +2240,31 @@
         </is>
       </c>
       <c r="D43">
-        <v>13.3</v>
+        <v>10.4</v>
       </c>
       <c r="E43">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>83.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H43">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I43">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J43">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="K43">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="L43">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="44">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2284,31 +2284,31 @@
         </is>
       </c>
       <c r="D44">
-        <v>27.1</v>
+        <v>24.9</v>
       </c>
       <c r="E44">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>50.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H44">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="I44">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="L44">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2328,31 +2328,31 @@
         </is>
       </c>
       <c r="D45">
-        <v>40.5</v>
+        <v>37.44</v>
       </c>
       <c r="E45">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>47.8</v>
+        <v>61.56</v>
       </c>
       <c r="H45">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="I45">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="K45">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="L45">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="46">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2372,31 +2372,31 @@
         </is>
       </c>
       <c r="D46">
-        <v>16.8</v>
+        <v>14.9</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>76.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H46">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I46">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="K46">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="L46">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2416,31 +2416,31 @@
         </is>
       </c>
       <c r="D47">
-        <v>25.6</v>
+        <v>23.4</v>
       </c>
       <c r="E47">
-        <v>31.8</v>
+        <v>2.1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>41.6</v>
+        <v>73.5</v>
       </c>
       <c r="H47">
+        <v>0.24</v>
+      </c>
+      <c r="I47">
+        <v>0.92</v>
+      </c>
+      <c r="J47">
         <v>0.38</v>
       </c>
-      <c r="I47">
-        <v>0.45</v>
-      </c>
-      <c r="J47">
-        <v>0.41</v>
-      </c>
       <c r="K47">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="L47">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2460,31 +2460,31 @@
         </is>
       </c>
       <c r="D48">
-        <v>37.2</v>
+        <v>34.4</v>
       </c>
       <c r="E48">
-        <v>25.5</v>
+        <v>3.5</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>36.3</v>
+        <v>61.1</v>
       </c>
       <c r="H48">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="I48">
-        <v>0.59</v>
+        <v>0.91</v>
       </c>
       <c r="J48">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="K48">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="L48">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="49">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2504,31 +2504,31 @@
         </is>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>13.3</v>
       </c>
       <c r="E49">
-        <v>35.9</v>
+        <v>2.1</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>48.1</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H49">
+        <v>0.14</v>
+      </c>
+      <c r="I49">
+        <v>0.86</v>
+      </c>
+      <c r="J49">
         <v>0.24</v>
       </c>
-      <c r="I49">
-        <v>0.29</v>
-      </c>
-      <c r="J49">
-        <v>0.26</v>
-      </c>
       <c r="K49">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="L49">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="50">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2548,31 +2548,31 @@
         </is>
       </c>
       <c r="D50">
-        <v>23.8</v>
+        <v>27.1</v>
       </c>
       <c r="E50">
-        <v>14.7</v>
+        <v>21.6</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>60.5</v>
+        <v>50.3</v>
       </c>
       <c r="H50">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="I50">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J50">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="K50">
         <v>0.5</v>
       </c>
       <c r="L50">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="51">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2592,31 +2592,31 @@
         </is>
       </c>
       <c r="D51">
-        <v>34.1</v>
+        <v>40.5</v>
       </c>
       <c r="E51">
-        <v>14.5</v>
+        <v>10.7</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>50.4</v>
+        <v>47.8</v>
       </c>
       <c r="H51">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="I51">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="J51">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="K51">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L51">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="52">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2636,31 +2636,31 @@
         </is>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>16.8</v>
       </c>
       <c r="E52">
-        <v>12.3</v>
+        <v>6</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>72.7</v>
+        <v>76.2</v>
       </c>
       <c r="H52">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I52">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="J52">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="K52">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="L52">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="53">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2680,31 +2680,31 @@
         </is>
       </c>
       <c r="D53">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>7.9</v>
+        <v>35.8</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>68.5</v>
+        <v>63.2</v>
       </c>
       <c r="H53">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2724,31 +2724,31 @@
         </is>
       </c>
       <c r="D54">
-        <v>32.8</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>8.300000000000001</v>
+        <v>52.3</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>57.9</v>
+        <v>46.7</v>
       </c>
       <c r="H54">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2768,31 +2768,31 @@
         </is>
       </c>
       <c r="D55">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>5.9</v>
+        <v>21.4</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>80</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H55">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2812,31 +2812,31 @@
         </is>
       </c>
       <c r="D56">
-        <v>24.9</v>
+        <v>17.5</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>74.09999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="H56">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="J56">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K56">
-        <v>0.63</v>
+        <v>0.41</v>
       </c>
       <c r="L56">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="57">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2856,31 +2856,31 @@
         </is>
       </c>
       <c r="D57">
-        <v>37.1</v>
+        <v>16.4</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>61.9</v>
+        <v>55.5</v>
       </c>
       <c r="H57">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="J57">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="K57">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="L57">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="58">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2900,31 +2900,31 @@
         </is>
       </c>
       <c r="D58">
-        <v>14.9</v>
+        <v>13.1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>84.09999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H58">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="J58">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="K58">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="L58">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="59">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2944,31 +2944,31 @@
         </is>
       </c>
       <c r="D59">
-        <v>29.6</v>
+        <v>25.6</v>
       </c>
       <c r="E59">
-        <v>2.1</v>
+        <v>31.8</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>67.3</v>
+        <v>41.6</v>
       </c>
       <c r="H59">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="I59">
-        <v>0.93</v>
+        <v>0.45</v>
       </c>
       <c r="J59">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="K59">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
       <c r="L59">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="60">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2988,31 +2988,31 @@
         </is>
       </c>
       <c r="D60">
-        <v>43.7</v>
+        <v>37.2</v>
       </c>
       <c r="E60">
-        <v>3.5</v>
+        <v>25.5</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>51.8</v>
+        <v>36.3</v>
       </c>
       <c r="H60">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="I60">
-        <v>0.93</v>
+        <v>0.59</v>
       </c>
       <c r="J60">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="K60">
-        <v>0.77</v>
+        <v>0.57</v>
       </c>
       <c r="L60">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="61">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3032,31 +3032,31 @@
         </is>
       </c>
       <c r="D61">
-        <v>17.2</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>2.1</v>
+        <v>35.9</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>79.7</v>
+        <v>48.1</v>
       </c>
       <c r="H61">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I61">
-        <v>0.89</v>
+        <v>0.29</v>
       </c>
       <c r="J61">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="K61">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
       <c r="L61">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="62">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3076,31 +3076,31 @@
         </is>
       </c>
       <c r="D62">
-        <v>26.9</v>
+        <v>23.8</v>
       </c>
       <c r="E62">
-        <v>43.5</v>
+        <v>14.7</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>28.6</v>
+        <v>60.5</v>
       </c>
       <c r="H62">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="I62">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="J62">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="K62">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L62">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="63">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3120,31 +3120,31 @@
         </is>
       </c>
       <c r="D63">
-        <v>40.2</v>
+        <v>34.1</v>
       </c>
       <c r="E63">
-        <v>35.1</v>
+        <v>14.5</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>23.7</v>
+        <v>50.4</v>
       </c>
       <c r="H63">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="I63">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="J63">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="K63">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="L63">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="64">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3164,31 +3164,31 @@
         </is>
       </c>
       <c r="D64">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>50.1</v>
+        <v>12.3</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>33.4</v>
+        <v>72.7</v>
       </c>
       <c r="H64">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I64">
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
       <c r="J64">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="K64">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="L64">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="65">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3208,31 +3208,31 @@
         </is>
       </c>
       <c r="D65">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="E65">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>66.5</v>
+        <v>68.5</v>
       </c>
       <c r="H65">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I65">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="J65">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="K65">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="L65">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="66">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3252,31 +3252,31 @@
         </is>
       </c>
       <c r="D66">
-        <v>36.5</v>
+        <v>32.8</v>
       </c>
       <c r="E66">
-        <v>10.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>51.6</v>
+        <v>57.9</v>
       </c>
       <c r="H66">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="I66">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="J66">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="L66">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="67">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3296,31 +3296,31 @@
         </is>
       </c>
       <c r="D67">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="E67">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>79.7</v>
+        <v>80</v>
       </c>
       <c r="H67">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I67">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J67">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="K67">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="L67">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="68">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3340,31 +3340,31 @@
         </is>
       </c>
       <c r="D68">
-        <v>17.5</v>
+        <v>24.9</v>
       </c>
       <c r="E68">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>72.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H68">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I68">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K68">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
       <c r="L68">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3384,31 +3384,31 @@
         </is>
       </c>
       <c r="D69">
-        <v>30.4</v>
+        <v>37.1</v>
       </c>
       <c r="E69">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>55.9</v>
+        <v>61.9</v>
       </c>
       <c r="H69">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I69">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="K69">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="L69">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="70">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3428,31 +3428,31 @@
         </is>
       </c>
       <c r="D70">
-        <v>6.44</v>
+        <v>14.9</v>
       </c>
       <c r="E70">
-        <v>7.67</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>84.89</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H70">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I70">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="K70">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="L70">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="71">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3472,31 +3472,31 @@
         </is>
       </c>
       <c r="D71">
-        <v>22.7</v>
+        <v>29.6</v>
       </c>
       <c r="E71">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>71</v>
+        <v>67.3</v>
       </c>
       <c r="H71">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="I71">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="J71">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="K71">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="L71">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3516,31 +3516,31 @@
         </is>
       </c>
       <c r="D72">
-        <v>31.2</v>
+        <v>43.7</v>
       </c>
       <c r="E72">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>58.3</v>
+        <v>51.8</v>
       </c>
       <c r="H72">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="I72">
+        <v>0.93</v>
+      </c>
+      <c r="J72">
+        <v>0.61</v>
+      </c>
+      <c r="K72">
         <v>0.77</v>
       </c>
-      <c r="J72">
-        <v>0.48</v>
-      </c>
-      <c r="K72">
-        <v>0.62</v>
-      </c>
       <c r="L72">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="73">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3560,42 +3560,42 @@
         </is>
       </c>
       <c r="D73">
-        <v>13.5</v>
+        <v>17.2</v>
       </c>
       <c r="E73">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>82.2</v>
+        <v>79.7</v>
       </c>
       <c r="H73">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I73">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="J73">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="K73">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="L73">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3604,42 +3604,42 @@
         </is>
       </c>
       <c r="D74">
-        <v>24.5</v>
+        <v>26.9</v>
       </c>
       <c r="E74">
-        <v>3.3</v>
+        <v>43.5</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>71.2</v>
+        <v>28.6</v>
       </c>
       <c r="H74">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="I74">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="J74">
+        <v>0.43</v>
+      </c>
+      <c r="K74">
         <v>0.4</v>
       </c>
-      <c r="K74">
-        <v>0.59</v>
-      </c>
       <c r="L74">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3648,42 +3648,42 @@
         </is>
       </c>
       <c r="D75">
-        <v>34.67</v>
+        <v>40.2</v>
       </c>
       <c r="E75">
-        <v>4.11</v>
+        <v>35.1</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>60.22</v>
+        <v>23.7</v>
       </c>
       <c r="H75">
-        <v>0.37</v>
+        <v>0.63</v>
       </c>
       <c r="I75">
-        <v>0.89</v>
+        <v>0.53</v>
       </c>
       <c r="J75">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="K75">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="L75">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3692,42 +3692,42 @@
         </is>
       </c>
       <c r="D76">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>50.1</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>83.40000000000001</v>
+        <v>33.4</v>
       </c>
       <c r="H76">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="I76">
-        <v>0.9399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="J76">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K76">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="L76">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3736,42 +3736,42 @@
         </is>
       </c>
       <c r="D77">
-        <v>23.62</v>
+        <v>25.2</v>
       </c>
       <c r="E77">
-        <v>4.25</v>
+        <v>7.3</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>71.12</v>
+        <v>66.5</v>
       </c>
       <c r="H77">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I77">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="J77">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="K77">
         <v>0.57</v>
       </c>
       <c r="L77">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3780,42 +3780,42 @@
         </is>
       </c>
       <c r="D78">
-        <v>32.8</v>
+        <v>36.5</v>
       </c>
       <c r="E78">
-        <v>5.2</v>
+        <v>10.9</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>61</v>
+        <v>51.6</v>
       </c>
       <c r="H78">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="I78">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="J78">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="K78">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="L78">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BLAST97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3824,42 +3824,42 @@
         </is>
       </c>
       <c r="D79">
-        <v>11.7</v>
+        <v>14.5</v>
       </c>
       <c r="E79">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>85.5</v>
+        <v>79.7</v>
       </c>
       <c r="H79">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I79">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="J79">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="K79">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="L79">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3868,42 +3868,42 @@
         </is>
       </c>
       <c r="D80">
-        <v>27.9</v>
+        <v>17.5</v>
       </c>
       <c r="E80">
-        <v>13.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>57.4</v>
+        <v>72.3</v>
       </c>
       <c r="H80">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I80">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="J80">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="K80">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="L80">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3912,42 +3912,42 @@
         </is>
       </c>
       <c r="D81">
-        <v>38.5</v>
+        <v>30.4</v>
       </c>
       <c r="E81">
-        <v>17.6</v>
+        <v>12.7</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>42.9</v>
+        <v>55.9</v>
       </c>
       <c r="H81">
+        <v>0.35</v>
+      </c>
+      <c r="I81">
+        <v>0.71</v>
+      </c>
+      <c r="J81">
         <v>0.47</v>
       </c>
-      <c r="I81">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J81">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="K81">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="L81">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3956,42 +3956,42 @@
         </is>
       </c>
       <c r="D82">
-        <v>13.4</v>
+        <v>6.44</v>
       </c>
       <c r="E82">
-        <v>21.3</v>
+        <v>7.67</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>64.3</v>
+        <v>84.89</v>
       </c>
       <c r="H82">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I82">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="J82">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="K82">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="L82">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4000,42 +4000,42 @@
         </is>
       </c>
       <c r="D83">
-        <v>25.1</v>
+        <v>22.7</v>
       </c>
       <c r="E83">
-        <v>30.8</v>
+        <v>5.3</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>43.1</v>
+        <v>71</v>
       </c>
       <c r="H83">
+        <v>0.24</v>
+      </c>
+      <c r="I83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J83">
         <v>0.37</v>
       </c>
-      <c r="I83">
-        <v>0.45</v>
-      </c>
-      <c r="J83">
-        <v>0.4</v>
-      </c>
       <c r="K83">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="L83">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4044,42 +4044,42 @@
         </is>
       </c>
       <c r="D84">
-        <v>34.5</v>
+        <v>31.2</v>
       </c>
       <c r="E84">
-        <v>20.3</v>
+        <v>9.5</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>44.2</v>
+        <v>58.3</v>
       </c>
       <c r="H84">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="I84">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="J84">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="K84">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="L84">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>16S</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4088,31 +4088,31 @@
         </is>
       </c>
       <c r="D85">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="E85">
-        <v>42.9</v>
+        <v>3.3</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>43.7</v>
+        <v>82.2</v>
       </c>
       <c r="H85">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I85">
-        <v>0.22</v>
+        <v>0.8</v>
       </c>
       <c r="J85">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="K85">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="L85">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="86">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="D86">
-        <v>21.8</v>
+        <v>24.5</v>
       </c>
       <c r="E86">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>74</v>
+        <v>71.2</v>
       </c>
       <c r="H86">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I86">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J86">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="K86">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="L86">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4176,31 +4176,31 @@
         </is>
       </c>
       <c r="D87">
-        <v>29.1</v>
+        <v>34.67</v>
       </c>
       <c r="E87">
-        <v>2.4</v>
+        <v>4.11</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>67.5</v>
+        <v>60.22</v>
       </c>
       <c r="H87">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I87">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="J87">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="K87">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L87">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="88">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>BLAST100</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4220,31 +4220,31 @@
         </is>
       </c>
       <c r="D88">
-        <v>11.2</v>
+        <v>14.6</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>83.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H88">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I88">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J88">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="K88">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="L88">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="89">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4264,31 +4264,31 @@
         </is>
       </c>
       <c r="D89">
-        <v>17.5</v>
+        <v>23.62</v>
       </c>
       <c r="E89">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>79.3</v>
+        <v>71.12</v>
       </c>
       <c r="H89">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I89">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="J89">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="K89">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="L89">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="90">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4308,31 +4308,31 @@
         </is>
       </c>
       <c r="D90">
-        <v>21.3</v>
+        <v>32.8</v>
       </c>
       <c r="E90">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>75.8</v>
+        <v>61</v>
       </c>
       <c r="H90">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="I90">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="J90">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="K90">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="L90">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="91">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>BLAST97</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4352,31 +4352,31 @@
         </is>
       </c>
       <c r="D91">
-        <v>10.1</v>
+        <v>11.7</v>
       </c>
       <c r="E91">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>87.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="H91">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I91">
         <v>0.87</v>
       </c>
       <c r="J91">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="K91">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="L91">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="92">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4396,31 +4396,31 @@
         </is>
       </c>
       <c r="D92">
-        <v>17.7</v>
+        <v>27.9</v>
       </c>
       <c r="E92">
-        <v>4.1</v>
+        <v>13.7</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>77.2</v>
+        <v>57.4</v>
       </c>
       <c r="H92">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="I92">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="J92">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="K92">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="L92">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="93">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4440,31 +4440,31 @@
         </is>
       </c>
       <c r="D93">
-        <v>26.6</v>
+        <v>38.5</v>
       </c>
       <c r="E93">
-        <v>5.2</v>
+        <v>17.6</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>67.2</v>
+        <v>42.9</v>
       </c>
       <c r="H93">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
       <c r="I93">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J93">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K93">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="L93">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="94">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4484,31 +4484,31 @@
         </is>
       </c>
       <c r="D94">
-        <v>9.9</v>
+        <v>13.4</v>
       </c>
       <c r="E94">
-        <v>1.9</v>
+        <v>21.3</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>87.2</v>
+        <v>64.3</v>
       </c>
       <c r="H94">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I94">
-        <v>0.84</v>
+        <v>0.39</v>
       </c>
       <c r="J94">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="K94">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="L94">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="95">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4528,31 +4528,31 @@
         </is>
       </c>
       <c r="D95">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>62.6</v>
+        <v>99</v>
       </c>
       <c r="H95">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4572,31 +4572,31 @@
         </is>
       </c>
       <c r="D96">
-        <v>42.4</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>50.3</v>
+        <v>99</v>
       </c>
       <c r="H96">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>DADA2_Species</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4616,31 +4616,31 @@
         </is>
       </c>
       <c r="D97">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>80.8</v>
+        <v>99</v>
       </c>
       <c r="H97">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4660,31 +4660,31 @@
         </is>
       </c>
       <c r="D98">
-        <v>17.6</v>
+        <v>16.6</v>
       </c>
       <c r="E98">
-        <v>24.8</v>
+        <v>21.1</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>56.6</v>
+        <v>61.3</v>
       </c>
       <c r="H98">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I98">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="J98">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="K98">
         <v>0.36</v>
       </c>
       <c r="L98">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="99">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4704,31 +4704,31 @@
         </is>
       </c>
       <c r="D99">
-        <v>24.9</v>
+        <v>19.8</v>
       </c>
       <c r="E99">
-        <v>20.6</v>
+        <v>26.6</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>53.5</v>
+        <v>52.6</v>
       </c>
       <c r="H99">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I99">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
       <c r="J99">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="K99">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="L99">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="100">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>DADA2_Taxonomy</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4748,31 +4748,31 @@
         </is>
       </c>
       <c r="D100">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="E100">
-        <v>30.9</v>
+        <v>8.9</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>59.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H100">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I100">
-        <v>0.22</v>
+        <v>0.55</v>
       </c>
       <c r="J100">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="K100">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="L100">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="101">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4792,31 +4792,31 @@
         </is>
       </c>
       <c r="D101">
-        <v>27.8</v>
+        <v>25.1</v>
       </c>
       <c r="E101">
-        <v>14.9</v>
+        <v>30.8</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>56.3</v>
+        <v>43.1</v>
       </c>
       <c r="H101">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I101">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="J101">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="K101">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
       <c r="L101">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4836,31 +4836,31 @@
         </is>
       </c>
       <c r="D102">
-        <v>37.7</v>
+        <v>34.5</v>
       </c>
       <c r="E102">
-        <v>19.5</v>
+        <v>20.3</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>41.8</v>
+        <v>44.2</v>
       </c>
       <c r="H102">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="I102">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="J102">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="K102">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="L102">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="103">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4880,28 +4880,28 @@
         </is>
       </c>
       <c r="D103">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="E103">
-        <v>8.699999999999999</v>
+        <v>42.9</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>77</v>
+        <v>43.7</v>
       </c>
       <c r="H103">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I103">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="J103">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="K103">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="L103">
         <v>0.13</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4924,31 +4924,31 @@
         </is>
       </c>
       <c r="D104">
-        <v>15.11</v>
+        <v>21.8</v>
       </c>
       <c r="E104">
-        <v>12.56</v>
+        <v>3.2</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>71.33</v>
+        <v>74</v>
       </c>
       <c r="H104">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I104">
-        <v>0.55</v>
+        <v>0.87</v>
       </c>
       <c r="J104">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="K104">
-        <v>0.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L104">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="105">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4968,31 +4968,31 @@
         </is>
       </c>
       <c r="D105">
-        <v>35.9</v>
+        <v>29.1</v>
       </c>
       <c r="E105">
-        <v>11.2</v>
+        <v>2.4</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>51.9</v>
+        <v>67.5</v>
       </c>
       <c r="H105">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="I105">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="J105">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K105">
         <v>0.65</v>
       </c>
       <c r="L105">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="106">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5012,31 +5012,31 @@
         </is>
       </c>
       <c r="D106">
-        <v>1.4</v>
+        <v>11.2</v>
       </c>
       <c r="E106">
-        <v>17.9</v>
+        <v>4</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>79.7</v>
+        <v>83.8</v>
       </c>
       <c r="H106">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="I106">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="J106">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="K106">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="L106">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="107">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5056,31 +5056,31 @@
         </is>
       </c>
       <c r="D107">
+        <v>17.5</v>
+      </c>
+      <c r="E107">
+        <v>2.2</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>79.3</v>
+      </c>
+      <c r="H107">
+        <v>0.18</v>
+      </c>
+      <c r="I107">
+        <v>0.89</v>
+      </c>
+      <c r="J107">
+        <v>0.3</v>
+      </c>
+      <c r="K107">
         <v>0.5</v>
       </c>
-      <c r="E107">
-        <v>5.9</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="H107">
-        <v>0.01</v>
-      </c>
-      <c r="I107">
-        <v>0.08</v>
-      </c>
-      <c r="J107">
-        <v>0.01</v>
-      </c>
-      <c r="K107">
-        <v>0.02</v>
-      </c>
       <c r="L107">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="108">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5100,31 +5100,31 @@
         </is>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>21.3</v>
       </c>
       <c r="E108">
-        <v>8.5</v>
+        <v>1.9</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>89.5</v>
+        <v>75.8</v>
       </c>
       <c r="H108">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="I108">
-        <v>0.11</v>
+        <v>0.92</v>
       </c>
       <c r="J108">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="K108">
-        <v>0.04</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L108">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="109">
@@ -5135,39 +5135,831 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>Kraken_0.1</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>10.1</v>
+      </c>
+      <c r="E109">
+        <v>1.5</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="H109">
+        <v>0.1</v>
+      </c>
+      <c r="I109">
+        <v>0.87</v>
+      </c>
+      <c r="J109">
+        <v>0.19</v>
+      </c>
+      <c r="K109">
+        <v>0.35</v>
+      </c>
+      <c r="L109">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MMSeqs2_100</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>17.7</v>
+      </c>
+      <c r="E110">
+        <v>4.1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>77.2</v>
+      </c>
+      <c r="H110">
+        <v>0.19</v>
+      </c>
+      <c r="I110">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J110">
+        <v>0.3</v>
+      </c>
+      <c r="K110">
+        <v>0.49</v>
+      </c>
+      <c r="L110">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MMSeqs2_100</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>26.6</v>
+      </c>
+      <c r="E111">
+        <v>5.2</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>67.2</v>
+      </c>
+      <c r="H111">
+        <v>0.28</v>
+      </c>
+      <c r="I111">
+        <v>0.84</v>
+      </c>
+      <c r="J111">
+        <v>0.42</v>
+      </c>
+      <c r="K111">
+        <v>0.6</v>
+      </c>
+      <c r="L111">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MMSeqs2_100</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>9.9</v>
+      </c>
+      <c r="E112">
+        <v>1.9</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>87.2</v>
+      </c>
+      <c r="H112">
+        <v>0.1</v>
+      </c>
+      <c r="I112">
+        <v>0.84</v>
+      </c>
+      <c r="J112">
+        <v>0.18</v>
+      </c>
+      <c r="K112">
+        <v>0.34</v>
+      </c>
+      <c r="L112">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MMSeqs2_97</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>30.9</v>
+      </c>
+      <c r="E113">
+        <v>5.5</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>62.6</v>
+      </c>
+      <c r="H113">
+        <v>0.33</v>
+      </c>
+      <c r="I113">
+        <v>0.85</v>
+      </c>
+      <c r="J113">
+        <v>0.48</v>
+      </c>
+      <c r="K113">
+        <v>0.65</v>
+      </c>
+      <c r="L113">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MMSeqs2_97</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>42.4</v>
+      </c>
+      <c r="E114">
+        <v>6.3</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>50.3</v>
+      </c>
+      <c r="H114">
+        <v>0.46</v>
+      </c>
+      <c r="I114">
+        <v>0.87</v>
+      </c>
+      <c r="J114">
+        <v>0.6</v>
+      </c>
+      <c r="K114">
+        <v>0.74</v>
+      </c>
+      <c r="L114">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MMSeqs2_97</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>15.8</v>
+      </c>
+      <c r="E115">
+        <v>2.4</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>80.8</v>
+      </c>
+      <c r="H115">
+        <v>0.16</v>
+      </c>
+      <c r="I115">
+        <v>0.87</v>
+      </c>
+      <c r="J115">
+        <v>0.28</v>
+      </c>
+      <c r="K115">
+        <v>0.47</v>
+      </c>
+      <c r="L115">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Metabuli</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>17.6</v>
+      </c>
+      <c r="E116">
+        <v>24.8</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>56.6</v>
+      </c>
+      <c r="H116">
+        <v>0.24</v>
+      </c>
+      <c r="I116">
+        <v>0.42</v>
+      </c>
+      <c r="J116">
+        <v>0.3</v>
+      </c>
+      <c r="K116">
+        <v>0.36</v>
+      </c>
+      <c r="L116">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Metabuli</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>24.9</v>
+      </c>
+      <c r="E117">
+        <v>20.6</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>53.5</v>
+      </c>
+      <c r="H117">
+        <v>0.32</v>
+      </c>
+      <c r="I117">
+        <v>0.55</v>
+      </c>
+      <c r="J117">
+        <v>0.4</v>
+      </c>
+      <c r="K117">
+        <v>0.48</v>
+      </c>
+      <c r="L117">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Metabuli</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>8.6</v>
+      </c>
+      <c r="E118">
+        <v>30.9</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>59.5</v>
+      </c>
+      <c r="H118">
+        <v>0.13</v>
+      </c>
+      <c r="I118">
+        <v>0.22</v>
+      </c>
+      <c r="J118">
+        <v>0.16</v>
+      </c>
+      <c r="K118">
+        <v>0.19</v>
+      </c>
+      <c r="L118">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>27.8</v>
+      </c>
+      <c r="E119">
+        <v>14.9</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>56.3</v>
+      </c>
+      <c r="H119">
+        <v>0.33</v>
+      </c>
+      <c r="I119">
+        <v>0.65</v>
+      </c>
+      <c r="J119">
+        <v>0.44</v>
+      </c>
+      <c r="K119">
+        <v>0.55</v>
+      </c>
+      <c r="L119">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>37.7</v>
+      </c>
+      <c r="E120">
+        <v>19.5</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>41.8</v>
+      </c>
+      <c r="H120">
+        <v>0.47</v>
+      </c>
+      <c r="I120">
+        <v>0.66</v>
+      </c>
+      <c r="J120">
+        <v>0.55</v>
+      </c>
+      <c r="K120">
+        <v>0.61</v>
+      </c>
+      <c r="L120">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mothur</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>13.3</v>
+      </c>
+      <c r="E121">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>77</v>
+      </c>
+      <c r="H121">
+        <v>0.15</v>
+      </c>
+      <c r="I121">
+        <v>0.6</v>
+      </c>
+      <c r="J121">
+        <v>0.24</v>
+      </c>
+      <c r="K121">
+        <v>0.37</v>
+      </c>
+      <c r="L121">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>15.11</v>
+      </c>
+      <c r="E122">
+        <v>12.56</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>71.33</v>
+      </c>
+      <c r="H122">
+        <v>0.17</v>
+      </c>
+      <c r="I122">
+        <v>0.55</v>
+      </c>
+      <c r="J122">
+        <v>0.26</v>
+      </c>
+      <c r="K122">
+        <v>0.38</v>
+      </c>
+      <c r="L122">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>35.9</v>
+      </c>
+      <c r="E123">
+        <v>11.2</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>51.9</v>
+      </c>
+      <c r="H123">
+        <v>0.41</v>
+      </c>
+      <c r="I123">
+        <v>0.76</v>
+      </c>
+      <c r="J123">
+        <v>0.53</v>
+      </c>
+      <c r="K123">
+        <v>0.65</v>
+      </c>
+      <c r="L123">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>1.4</v>
+      </c>
+      <c r="E124">
+        <v>17.9</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>79.7</v>
+      </c>
+      <c r="H124">
+        <v>0.02</v>
+      </c>
+      <c r="I124">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J124">
+        <v>0.03</v>
+      </c>
+      <c r="K124">
+        <v>0.04</v>
+      </c>
+      <c r="L124">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>0.5</v>
+      </c>
+      <c r="E125">
+        <v>5.9</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="H125">
+        <v>0.01</v>
+      </c>
+      <c r="I125">
+        <v>0.08</v>
+      </c>
+      <c r="J125">
+        <v>0.01</v>
+      </c>
+      <c r="K125">
+        <v>0.02</v>
+      </c>
+      <c r="L125">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>8.5</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>89.5</v>
+      </c>
+      <c r="H126">
+        <v>0.01</v>
+      </c>
+      <c r="I126">
+        <v>0.11</v>
+      </c>
+      <c r="J126">
+        <v>0.02</v>
+      </c>
+      <c r="K126">
+        <v>0.04</v>
+      </c>
+      <c r="L126">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
-      <c r="D109">
+      <c r="D127">
         <v>0.2</v>
       </c>
-      <c r="E109">
+      <c r="E127">
         <v>3.2</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
         <v>95.59999999999999</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>0.06</v>
       </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
         <v>0.01</v>
       </c>
-      <c r="L109">
+      <c r="L127">
         <v>0</v>
       </c>
     </row>

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -964,31 +964,31 @@
         </is>
       </c>
       <c r="D14">
-        <v>10.9</v>
+        <v>8.9</v>
       </c>
       <c r="E14">
-        <v>18.1</v>
+        <v>12.7</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="G14">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.13</v>
-      </c>
       <c r="I14">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="J14">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="K14">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="L14">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1008,31 +1008,31 @@
         </is>
       </c>
       <c r="D15">
-        <v>12.9</v>
+        <v>10.8</v>
       </c>
       <c r="E15">
-        <v>28</v>
+        <v>20.3</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.1</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H15">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I15">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="J15">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
         <v>0.27</v>
       </c>
       <c r="L15">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1052,31 +1052,31 @@
         </is>
       </c>
       <c r="D16">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="E16">
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>82</v>
+        <v>86.8</v>
       </c>
       <c r="H16">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I16">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="J16">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="K16">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="L16">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2812,31 +2812,31 @@
         </is>
       </c>
       <c r="D56">
-        <v>17.5</v>
+        <v>15.8</v>
       </c>
       <c r="E56">
-        <v>14.4</v>
+        <v>10.4</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>67.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="H56">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I56">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="J56">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="K56">
         <v>0.41</v>
       </c>
       <c r="L56">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="57">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2856,31 +2856,31 @@
         </is>
       </c>
       <c r="D57">
-        <v>16.4</v>
+        <v>14.5</v>
       </c>
       <c r="E57">
-        <v>27.1</v>
+        <v>20.2</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>55.5</v>
+        <v>64.3</v>
       </c>
       <c r="H57">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I57">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="J57">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="K57">
         <v>0.33</v>
       </c>
       <c r="L57">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="58">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2900,31 +2900,31 @@
         </is>
       </c>
       <c r="D58">
-        <v>13.1</v>
+        <v>11.4</v>
       </c>
       <c r="E58">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>79.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H58">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I58">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="J58">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="K58">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="L58">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="59">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4660,31 +4660,31 @@
         </is>
       </c>
       <c r="D98">
-        <v>16.6</v>
+        <v>14.1</v>
       </c>
       <c r="E98">
-        <v>21.1</v>
+        <v>12.7</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>61.3</v>
+        <v>72.2</v>
       </c>
       <c r="H98">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I98">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="J98">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="K98">
         <v>0.36</v>
       </c>
       <c r="L98">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="99">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4704,31 +4704,31 @@
         </is>
       </c>
       <c r="D99">
-        <v>19.8</v>
+        <v>16.5</v>
       </c>
       <c r="E99">
-        <v>26.6</v>
+        <v>18.8</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>52.6</v>
+        <v>63.7</v>
       </c>
       <c r="H99">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I99">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="J99">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="K99">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="L99">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="100">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4748,31 +4748,31 @@
         </is>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="E100">
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>79.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="H100">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I100">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="J100">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="K100">
         <v>0.32</v>
       </c>
       <c r="L100">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="101">

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>43.2</v>
+        <v>3.5</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>55.8</v>
+        <v>65.5</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
@@ -876,31 +876,31 @@
         </is>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>40.1</v>
       </c>
       <c r="E12">
-        <v>58.7</v>
+        <v>4.1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>40.3</v>
+        <v>54.8</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="E13">
-        <v>23.3</v>
+        <v>1.5</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>75.7</v>
+        <v>81.2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14">
@@ -2680,31 +2680,31 @@
         </is>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="E53">
-        <v>35.8</v>
+        <v>0.4</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>63.2</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54">
@@ -2724,31 +2724,31 @@
         </is>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="E54">
-        <v>52.3</v>
+        <v>0.9</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>46.7</v>
+        <v>61.9</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="55">
@@ -2768,31 +2768,31 @@
         </is>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="E55">
-        <v>21.4</v>
+        <v>0.2</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>77.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="56">

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="D32">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="E32">
-        <v>38.7</v>
+        <v>37.2</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>31.1</v>
+        <v>33.2</v>
       </c>
       <c r="H32">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="I32">
         <v>0.43</v>
       </c>
       <c r="J32">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="K32">
         <v>0.44</v>
@@ -1800,31 +1800,31 @@
         </is>
       </c>
       <c r="D33">
-        <v>38.8</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>30.5</v>
+        <v>28.2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>29.7</v>
+        <v>32.8</v>
       </c>
       <c r="H33">
+        <v>0.54</v>
+      </c>
+      <c r="I33">
         <v>0.57</v>
       </c>
-      <c r="I33">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="J33">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="K33">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="L33">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="34">
@@ -1844,25 +1844,25 @@
         </is>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E34">
-        <v>47.6</v>
+        <v>47.1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>35.4</v>
+        <v>36.2</v>
       </c>
       <c r="H34">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I34">
         <v>0.25</v>
       </c>
       <c r="J34">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="K34">
         <v>0.26</v>
@@ -3604,31 +3604,31 @@
         </is>
       </c>
       <c r="D74">
-        <v>26.9</v>
+        <v>26.1</v>
       </c>
       <c r="E74">
-        <v>43.5</v>
+        <v>41.9</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>28.6</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="I74">
         <v>0.38</v>
       </c>
       <c r="J74">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="K74">
         <v>0.4</v>
       </c>
       <c r="L74">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="75">
@@ -3648,31 +3648,31 @@
         </is>
       </c>
       <c r="D75">
-        <v>40.2</v>
+        <v>39.1</v>
       </c>
       <c r="E75">
-        <v>35.1</v>
+        <v>33.1</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>23.7</v>
+        <v>26.8</v>
       </c>
       <c r="H75">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="I75">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="J75">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="K75">
         <v>0.55</v>
       </c>
       <c r="L75">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="76">
@@ -3692,31 +3692,31 @@
         </is>
       </c>
       <c r="D76">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>50.1</v>
+        <v>49.4</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>33.4</v>
+        <v>34.6</v>
       </c>
       <c r="H76">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I76">
+        <v>0.23</v>
+      </c>
+      <c r="J76">
+        <v>0.26</v>
+      </c>
+      <c r="K76">
         <v>0.24</v>
       </c>
-      <c r="J76">
-        <v>0.27</v>
-      </c>
-      <c r="K76">
-        <v>0.25</v>
-      </c>
       <c r="L76">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="77">
@@ -5452,31 +5452,31 @@
         </is>
       </c>
       <c r="D116">
-        <v>17.6</v>
+        <v>29.8</v>
       </c>
       <c r="E116">
-        <v>24.8</v>
+        <v>48.7</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>56.6</v>
+        <v>20.5</v>
       </c>
       <c r="H116">
-        <v>0.24</v>
+        <v>0.59</v>
       </c>
       <c r="I116">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="J116">
+        <v>0.46</v>
+      </c>
+      <c r="K116">
+        <v>0.41</v>
+      </c>
+      <c r="L116">
         <v>0.3</v>
-      </c>
-      <c r="K116">
-        <v>0.36</v>
-      </c>
-      <c r="L116">
-        <v>0.18</v>
       </c>
     </row>
     <row r="117">
@@ -5496,31 +5496,31 @@
         </is>
       </c>
       <c r="D117">
+        <v>40.3</v>
+      </c>
+      <c r="E117">
+        <v>33.8</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
         <v>24.9</v>
       </c>
-      <c r="E117">
-        <v>20.6</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>53.5</v>
-      </c>
       <c r="H117">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="I117">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="J117">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="K117">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L117">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="118">
@@ -5540,31 +5540,31 @@
         </is>
       </c>
       <c r="D118">
-        <v>8.6</v>
+        <v>14.3</v>
       </c>
       <c r="E118">
-        <v>30.9</v>
+        <v>66</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>59.5</v>
+        <v>18.7</v>
       </c>
       <c r="H118">
-        <v>0.13</v>
+        <v>0.43</v>
       </c>
       <c r="I118">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="J118">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="K118">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="L118">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="119">

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="D86">
-        <v>24.5</v>
+        <v>31.8</v>
       </c>
       <c r="E86">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>71.2</v>
+        <v>65.3</v>
       </c>
       <c r="H86">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I86">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J86">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="K86">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L86">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="87">
@@ -4176,31 +4176,31 @@
         </is>
       </c>
       <c r="D87">
-        <v>34.67</v>
+        <v>41.6</v>
       </c>
       <c r="E87">
-        <v>4.11</v>
+        <v>2.8</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>60.22</v>
+        <v>54.6</v>
       </c>
       <c r="H87">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="I87">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J87">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="K87">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="L87">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="88">
@@ -4220,28 +4220,28 @@
         </is>
       </c>
       <c r="D88">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>83.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H88">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I88">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J88">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K88">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="L88">
         <v>0.15</v>
@@ -4264,31 +4264,31 @@
         </is>
       </c>
       <c r="D89">
-        <v>23.62</v>
+        <v>26.6</v>
       </c>
       <c r="E89">
-        <v>4.25</v>
+        <v>1.4</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>71.12</v>
+        <v>71</v>
       </c>
       <c r="H89">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I89">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="J89">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="K89">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="L89">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="90">
@@ -4308,31 +4308,31 @@
         </is>
       </c>
       <c r="D90">
-        <v>32.8</v>
+        <v>36.3</v>
       </c>
       <c r="E90">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>61</v>
+        <v>60.8</v>
       </c>
       <c r="H90">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I90">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="J90">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="K90">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="L90">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="91">
@@ -4352,31 +4352,31 @@
         </is>
       </c>
       <c r="D91">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="E91">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>85.5</v>
+        <v>85</v>
       </c>
       <c r="H91">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I91">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J91">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="K91">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="L91">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="92">
@@ -4396,31 +4396,31 @@
         </is>
       </c>
       <c r="D92">
-        <v>27.9</v>
+        <v>32.7</v>
       </c>
       <c r="E92">
-        <v>13.7</v>
+        <v>14.1</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>57.4</v>
+        <v>52.2</v>
       </c>
       <c r="H92">
+        <v>0.39</v>
+      </c>
+      <c r="I92">
+        <v>0.7</v>
+      </c>
+      <c r="J92">
+        <v>0.5</v>
+      </c>
+      <c r="K92">
+        <v>0.6</v>
+      </c>
+      <c r="L92">
         <v>0.33</v>
-      </c>
-      <c r="I92">
-        <v>0.67</v>
-      </c>
-      <c r="J92">
-        <v>0.44</v>
-      </c>
-      <c r="K92">
-        <v>0.55</v>
-      </c>
-      <c r="L92">
-        <v>0.28</v>
       </c>
     </row>
     <row r="93">
@@ -4440,31 +4440,31 @@
         </is>
       </c>
       <c r="D93">
-        <v>38.5</v>
+        <v>44.1</v>
       </c>
       <c r="E93">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>42.9</v>
+        <v>37.1</v>
       </c>
       <c r="H93">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="I93">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="J93">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="K93">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="L93">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="94">
@@ -4484,31 +4484,31 @@
         </is>
       </c>
       <c r="D94">
-        <v>13.4</v>
+        <v>17.2</v>
       </c>
       <c r="E94">
-        <v>21.3</v>
+        <v>14.9</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>64.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="H94">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>0.54</v>
+      </c>
+      <c r="J94">
+        <v>0.3</v>
+      </c>
+      <c r="K94">
+        <v>0.4</v>
+      </c>
+      <c r="L94">
         <v>0.17</v>
-      </c>
-      <c r="I94">
-        <v>0.39</v>
-      </c>
-      <c r="J94">
-        <v>0.24</v>
-      </c>
-      <c r="K94">
-        <v>0.31</v>
-      </c>
-      <c r="L94">
-        <v>0.14</v>
       </c>
     </row>
     <row r="95">
@@ -4528,31 +4528,31 @@
         </is>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>99</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="96">
@@ -4572,31 +4572,31 @@
         </is>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>99</v>
+        <v>55.4</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="97">
@@ -4616,31 +4616,31 @@
         </is>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>99</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="98">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4660,31 +4660,31 @@
         </is>
       </c>
       <c r="D98">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>72.2</v>
+        <v>99</v>
       </c>
       <c r="H98">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4704,31 +4704,31 @@
         </is>
       </c>
       <c r="D99">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>63.7</v>
+        <v>99</v>
       </c>
       <c r="H99">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DADA2Tax</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4748,31 +4748,31 @@
         </is>
       </c>
       <c r="D100">
-        <v>9.9</v>
+        <v>3.6</v>
       </c>
       <c r="E100">
-        <v>5.6</v>
+        <v>61.3</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>83.5</v>
+        <v>34.1</v>
       </c>
       <c r="H100">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I100">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="J100">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K100">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="L100">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="101">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4792,31 +4792,31 @@
         </is>
       </c>
       <c r="D101">
-        <v>25.1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>43.1</v>
+        <v>99</v>
       </c>
       <c r="H101">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4836,31 +4836,31 @@
         </is>
       </c>
       <c r="D102">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>44.2</v>
+        <v>99</v>
       </c>
       <c r="H102">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4880,31 +4880,31 @@
         </is>
       </c>
       <c r="D103">
-        <v>12.4</v>
+        <v>3.2</v>
       </c>
       <c r="E103">
-        <v>42.9</v>
+        <v>4.9</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>43.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H103">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="I103">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="J103">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="K103">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="L103">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="104">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4924,31 +4924,31 @@
         </is>
       </c>
       <c r="D104">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="H104">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4968,31 +4968,31 @@
         </is>
       </c>
       <c r="D105">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>67.5</v>
+        <v>99</v>
       </c>
       <c r="H105">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5012,31 +5012,31 @@
         </is>
       </c>
       <c r="D106">
-        <v>11.2</v>
+        <v>3.1</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>83.8</v>
+        <v>94</v>
       </c>
       <c r="H106">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I106">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="J106">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="K106">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="L106">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="107">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5056,31 +5056,31 @@
         </is>
       </c>
       <c r="D107">
-        <v>17.5</v>
+        <v>31.3</v>
       </c>
       <c r="E107">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>79.3</v>
+        <v>65.8</v>
       </c>
       <c r="H107">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="I107">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J107">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="K107">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="L107">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="108">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5100,31 +5100,31 @@
         </is>
       </c>
       <c r="D108">
-        <v>21.3</v>
+        <v>41</v>
       </c>
       <c r="E108">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>75.8</v>
+        <v>55.2</v>
       </c>
       <c r="H108">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="I108">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J108">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="K108">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="L108">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="109">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5144,31 +5144,31 @@
         </is>
       </c>
       <c r="D109">
-        <v>10.1</v>
+        <v>15.1</v>
       </c>
       <c r="E109">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>87.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="H109">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I109">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="J109">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="K109">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="L109">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="110">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5188,31 +5188,31 @@
         </is>
       </c>
       <c r="D110">
-        <v>17.7</v>
+        <v>33.1</v>
       </c>
       <c r="E110">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>77.2</v>
+        <v>62.7</v>
       </c>
       <c r="H110">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="I110">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="J110">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K110">
-        <v>0.49</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L110">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="111">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5232,31 +5232,31 @@
         </is>
       </c>
       <c r="D111">
-        <v>26.6</v>
+        <v>43.9</v>
       </c>
       <c r="E111">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>67.2</v>
+        <v>50.8</v>
       </c>
       <c r="H111">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="I111">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="J111">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="K111">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="L111">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="112">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5276,31 +5276,31 @@
         </is>
       </c>
       <c r="D112">
-        <v>9.9</v>
+        <v>16.3</v>
       </c>
       <c r="E112">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>87.2</v>
+        <v>81.2</v>
       </c>
       <c r="H112">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I112">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="J112">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="K112">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="L112">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="113">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5320,31 +5320,31 @@
         </is>
       </c>
       <c r="D113">
-        <v>30.9</v>
+        <v>12.8</v>
       </c>
       <c r="E113">
-        <v>5.5</v>
+        <v>19.8</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>62.6</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H113">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="I113">
-        <v>0.85</v>
+        <v>0.39</v>
       </c>
       <c r="J113">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="K113">
-        <v>0.65</v>
+        <v>0.31</v>
       </c>
       <c r="L113">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="114">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5364,31 +5364,31 @@
         </is>
       </c>
       <c r="D114">
-        <v>42.4</v>
+        <v>17.3</v>
       </c>
       <c r="E114">
-        <v>6.3</v>
+        <v>13</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>50.3</v>
+        <v>68.7</v>
       </c>
       <c r="H114">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
       <c r="I114">
-        <v>0.87</v>
+        <v>0.57</v>
       </c>
       <c r="J114">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K114">
-        <v>0.74</v>
+        <v>0.42</v>
       </c>
       <c r="L114">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="115">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5408,31 +5408,31 @@
         </is>
       </c>
       <c r="D115">
-        <v>15.8</v>
+        <v>6.2</v>
       </c>
       <c r="E115">
-        <v>2.4</v>
+        <v>25.7</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>80.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="H115">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I115">
-        <v>0.87</v>
+        <v>0.19</v>
       </c>
       <c r="J115">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="K115">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="L115">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="116">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5452,31 +5452,31 @@
         </is>
       </c>
       <c r="D116">
-        <v>29.8</v>
+        <v>33.7</v>
       </c>
       <c r="E116">
-        <v>48.7</v>
+        <v>12.8</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>20.5</v>
+        <v>52.5</v>
       </c>
       <c r="H116">
-        <v>0.59</v>
+        <v>0.39</v>
       </c>
       <c r="I116">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
       <c r="J116">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="K116">
-        <v>0.41</v>
+        <v>0.62</v>
       </c>
       <c r="L116">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="117">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5496,31 +5496,31 @@
         </is>
       </c>
       <c r="D117">
-        <v>40.3</v>
+        <v>46.6</v>
       </c>
       <c r="E117">
-        <v>33.8</v>
+        <v>16.3</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>24.9</v>
+        <v>36.1</v>
       </c>
       <c r="H117">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I117">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="J117">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="K117">
-        <v>0.5600000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L117">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="118">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5540,31 +5540,31 @@
         </is>
       </c>
       <c r="D118">
-        <v>14.3</v>
+        <v>18.2</v>
       </c>
       <c r="E118">
-        <v>66</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>18.7</v>
+        <v>72.5</v>
       </c>
       <c r="H118">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="I118">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J118">
+        <v>0.31</v>
+      </c>
+      <c r="K118">
+        <v>0.46</v>
+      </c>
+      <c r="L118">
         <v>0.18</v>
-      </c>
-      <c r="J118">
-        <v>0.25</v>
-      </c>
-      <c r="K118">
-        <v>0.2</v>
-      </c>
-      <c r="L118">
-        <v>0.14</v>
       </c>
     </row>
     <row r="119">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5584,31 +5584,31 @@
         </is>
       </c>
       <c r="D119">
-        <v>27.8</v>
+        <v>8.9</v>
       </c>
       <c r="E119">
-        <v>14.9</v>
+        <v>19.7</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>56.3</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H119">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="I119">
-        <v>0.65</v>
+        <v>0.31</v>
       </c>
       <c r="J119">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="K119">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
       <c r="L119">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="120">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5628,28 +5628,28 @@
         </is>
       </c>
       <c r="D120">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="E120">
-        <v>19.5</v>
+        <v>13.4</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>41.8</v>
+        <v>47.8</v>
       </c>
       <c r="H120">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="I120">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="J120">
         <v>0.55</v>
       </c>
       <c r="K120">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="L120">
         <v>0.38</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5672,31 +5672,31 @@
         </is>
       </c>
       <c r="D121">
-        <v>13.3</v>
+        <v>0.6</v>
       </c>
       <c r="E121">
-        <v>8.699999999999999</v>
+        <v>29.8</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>77</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H121">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="I121">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="J121">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="K121">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="L121">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="122">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5716,31 +5716,31 @@
         </is>
       </c>
       <c r="D122">
-        <v>15.11</v>
+        <v>31.4</v>
       </c>
       <c r="E122">
-        <v>12.56</v>
+        <v>11.1</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>71.33</v>
+        <v>56.5</v>
       </c>
       <c r="H122">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="I122">
-        <v>0.55</v>
+        <v>0.74</v>
       </c>
       <c r="J122">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="K122">
-        <v>0.38</v>
+        <v>0.61</v>
       </c>
       <c r="L122">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="123">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5760,31 +5760,31 @@
         </is>
       </c>
       <c r="D123">
-        <v>35.9</v>
+        <v>44.4</v>
       </c>
       <c r="E123">
-        <v>11.2</v>
+        <v>13.6</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>51.9</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="I123">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J123">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="K123">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L123">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="124">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>VSEARCH</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5804,163 +5804,31 @@
         </is>
       </c>
       <c r="D124">
-        <v>1.4</v>
+        <v>17.1</v>
       </c>
       <c r="E124">
-        <v>17.9</v>
+        <v>5.5</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>79.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H124">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="I124">
-        <v>0.07000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="J124">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="K124">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
       <c r="L124">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="D125">
-        <v>0.5</v>
-      </c>
-      <c r="E125">
-        <v>5.9</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="H125">
-        <v>0.01</v>
-      </c>
-      <c r="I125">
-        <v>0.08</v>
-      </c>
-      <c r="J125">
-        <v>0.01</v>
-      </c>
-      <c r="K125">
-        <v>0.02</v>
-      </c>
-      <c r="L125">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>8.5</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>89.5</v>
-      </c>
-      <c r="H126">
-        <v>0.01</v>
-      </c>
-      <c r="I126">
-        <v>0.11</v>
-      </c>
-      <c r="J126">
-        <v>0.02</v>
-      </c>
-      <c r="K126">
-        <v>0.04</v>
-      </c>
-      <c r="L126">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>VSEARCH</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="D127">
-        <v>0.2</v>
-      </c>
-      <c r="E127">
-        <v>3.2</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0.06</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0.01</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4660,31 +4660,31 @@
         </is>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>99</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="99">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4704,31 +4704,31 @@
         </is>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>99</v>
+        <v>56.6</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="100">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Kraken_0.0</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4748,31 +4748,31 @@
         </is>
       </c>
       <c r="D100">
-        <v>3.6</v>
+        <v>12.3</v>
       </c>
       <c r="E100">
-        <v>61.3</v>
+        <v>7.1</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>34.1</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H100">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I100">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="J100">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K100">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="L100">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="101">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kraken_0.05</t>
+          <t>Kraken_0.0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4880,31 +4880,31 @@
         </is>
       </c>
       <c r="D103">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="E103">
-        <v>4.9</v>
+        <v>61.3</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>90.90000000000001</v>
+        <v>34.1</v>
       </c>
       <c r="H103">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I103">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="J103">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K103">
         <v>0.06</v>
       </c>
-      <c r="K103">
-        <v>0.13</v>
-      </c>
       <c r="L103">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="104">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kraken_0.1</t>
+          <t>Kraken_0.05</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5012,22 +5012,22 @@
         </is>
       </c>
       <c r="D106">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E106">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>94</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H106">
         <v>0.03</v>
       </c>
       <c r="I106">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="J106">
         <v>0.06</v>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5056,31 +5056,31 @@
         </is>
       </c>
       <c r="D107">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>65.8</v>
+        <v>99</v>
       </c>
       <c r="H107">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5100,31 +5100,31 @@
         </is>
       </c>
       <c r="D108">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>55.2</v>
+        <v>99</v>
       </c>
       <c r="H108">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>0.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MMSeqs2_100</t>
+          <t>Kraken_0.1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5144,31 +5144,31 @@
         </is>
       </c>
       <c r="D109">
-        <v>15.1</v>
+        <v>3.1</v>
       </c>
       <c r="E109">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>82.8</v>
+        <v>94</v>
       </c>
       <c r="H109">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="I109">
-        <v>0.93</v>
+        <v>0.62</v>
       </c>
       <c r="J109">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="K109">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="L109">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="110">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5188,31 +5188,31 @@
         </is>
       </c>
       <c r="D110">
-        <v>33.1</v>
+        <v>31.3</v>
       </c>
       <c r="E110">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>62.7</v>
+        <v>65.8</v>
       </c>
       <c r="H110">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I110">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J110">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="K110">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="L110">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="111">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5232,31 +5232,31 @@
         </is>
       </c>
       <c r="D111">
-        <v>43.9</v>
+        <v>41</v>
       </c>
       <c r="E111">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>50.8</v>
+        <v>55.2</v>
       </c>
       <c r="H111">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="I111">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J111">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="K111">
         <v>0.76</v>
       </c>
       <c r="L111">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="112">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>MMSeqs2_100</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5276,31 +5276,31 @@
         </is>
       </c>
       <c r="D112">
-        <v>16.3</v>
+        <v>15.1</v>
       </c>
       <c r="E112">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>81.2</v>
+        <v>82.8</v>
       </c>
       <c r="H112">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I112">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J112">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="K112">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="L112">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="113">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5320,31 +5320,31 @@
         </is>
       </c>
       <c r="D113">
-        <v>12.8</v>
+        <v>33.1</v>
       </c>
       <c r="E113">
-        <v>19.8</v>
+        <v>3.2</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>66.40000000000001</v>
+        <v>62.7</v>
       </c>
       <c r="H113">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="I113">
-        <v>0.39</v>
+        <v>0.91</v>
       </c>
       <c r="J113">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="K113">
-        <v>0.31</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L113">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="114">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5364,31 +5364,31 @@
         </is>
       </c>
       <c r="D114">
-        <v>17.3</v>
+        <v>43.9</v>
       </c>
       <c r="E114">
-        <v>13</v>
+        <v>4.3</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>68.7</v>
+        <v>50.8</v>
       </c>
       <c r="H114">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="I114">
-        <v>0.57</v>
+        <v>0.91</v>
       </c>
       <c r="J114">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="K114">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
       <c r="L114">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="115">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Metabuli</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5408,31 +5408,31 @@
         </is>
       </c>
       <c r="D115">
-        <v>6.2</v>
+        <v>16.3</v>
       </c>
       <c r="E115">
-        <v>25.7</v>
+        <v>1.5</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>67.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="H115">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I115">
-        <v>0.19</v>
+        <v>0.92</v>
       </c>
       <c r="J115">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="K115">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
       <c r="L115">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="116">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5452,31 +5452,31 @@
         </is>
       </c>
       <c r="D116">
-        <v>33.7</v>
+        <v>12.8</v>
       </c>
       <c r="E116">
-        <v>12.8</v>
+        <v>19.8</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>52.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H116">
+        <v>0.16</v>
+      </c>
+      <c r="I116">
         <v>0.39</v>
       </c>
-      <c r="I116">
-        <v>0.72</v>
-      </c>
       <c r="J116">
-        <v>0.51</v>
+        <v>0.23</v>
       </c>
       <c r="K116">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="L116">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="117">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5496,31 +5496,31 @@
         </is>
       </c>
       <c r="D117">
-        <v>46.6</v>
+        <v>17.3</v>
       </c>
       <c r="E117">
-        <v>16.3</v>
+        <v>13</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>36.1</v>
+        <v>68.7</v>
       </c>
       <c r="H117">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I117">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="J117">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="K117">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="L117">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="118">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Metabuli</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5540,31 +5540,31 @@
         </is>
       </c>
       <c r="D118">
-        <v>18.2</v>
+        <v>6.2</v>
       </c>
       <c r="E118">
-        <v>8.300000000000001</v>
+        <v>25.7</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>72.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="H118">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="I118">
-        <v>0.6899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="J118">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="K118">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="L118">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="119">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5584,31 +5584,31 @@
         </is>
       </c>
       <c r="D119">
-        <v>8.9</v>
+        <v>33.7</v>
       </c>
       <c r="E119">
-        <v>19.7</v>
+        <v>12.8</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>70.40000000000001</v>
+        <v>52.5</v>
       </c>
       <c r="H119">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="I119">
-        <v>0.31</v>
+        <v>0.72</v>
       </c>
       <c r="J119">
-        <v>0.16</v>
+        <v>0.51</v>
       </c>
       <c r="K119">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="L119">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="120">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5628,31 +5628,31 @@
         </is>
       </c>
       <c r="D120">
-        <v>37.8</v>
+        <v>46.6</v>
       </c>
       <c r="E120">
-        <v>13.4</v>
+        <v>16.3</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>47.8</v>
+        <v>36.1</v>
       </c>
       <c r="H120">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I120">
         <v>0.74</v>
       </c>
       <c r="J120">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="K120">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L120">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="121">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Qiime2</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5672,31 +5672,31 @@
         </is>
       </c>
       <c r="D121">
-        <v>0.6</v>
+        <v>18.2</v>
       </c>
       <c r="E121">
-        <v>29.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>68.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="H121">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="I121">
-        <v>0.02</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J121">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="K121">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="L121">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="122">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5716,31 +5716,31 @@
         </is>
       </c>
       <c r="D122">
-        <v>31.4</v>
+        <v>8.9</v>
       </c>
       <c r="E122">
-        <v>11.1</v>
+        <v>19.7</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>56.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H122">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="I122">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
       <c r="J122">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="K122">
-        <v>0.61</v>
+        <v>0.23</v>
       </c>
       <c r="L122">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="123">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>VSEARCH</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5760,31 +5760,31 @@
         </is>
       </c>
       <c r="D123">
-        <v>44.4</v>
+        <v>37.8</v>
       </c>
       <c r="E123">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>41</v>
+        <v>47.8</v>
       </c>
       <c r="H123">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="I123">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="J123">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="K123">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="L123">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="124">
@@ -5795,39 +5795,171 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>Qiime2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>0.6</v>
+      </c>
+      <c r="E124">
+        <v>29.8</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="H124">
+        <v>0.01</v>
+      </c>
+      <c r="I124">
+        <v>0.02</v>
+      </c>
+      <c r="J124">
+        <v>0.01</v>
+      </c>
+      <c r="K124">
+        <v>0.02</v>
+      </c>
+      <c r="L124">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>VSEARCH</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>31.4</v>
+      </c>
+      <c r="E125">
+        <v>11.1</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>56.5</v>
+      </c>
+      <c r="H125">
+        <v>0.36</v>
+      </c>
+      <c r="I125">
+        <v>0.74</v>
+      </c>
+      <c r="J125">
+        <v>0.48</v>
+      </c>
+      <c r="K125">
+        <v>0.61</v>
+      </c>
+      <c r="L125">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>44.4</v>
+      </c>
+      <c r="E126">
+        <v>13.6</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>41</v>
+      </c>
+      <c r="H126">
+        <v>0.52</v>
+      </c>
+      <c r="I126">
+        <v>0.77</v>
+      </c>
+      <c r="J126">
+        <v>0.62</v>
+      </c>
+      <c r="K126">
+        <v>0.7</v>
+      </c>
+      <c r="L126">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CO1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>VSEARCH</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
-      <c r="D124">
+      <c r="D127">
         <v>17.1</v>
       </c>
-      <c r="E124">
+      <c r="E127">
         <v>5.5</v>
       </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
         <v>76.40000000000001</v>
       </c>
-      <c r="H124">
+      <c r="H127">
         <v>0.18</v>
       </c>
-      <c r="I124">
+      <c r="I127">
         <v>0.76</v>
       </c>
-      <c r="J124">
+      <c r="J127">
         <v>0.29</v>
       </c>
-      <c r="K124">
+      <c r="K127">
         <v>0.46</v>
       </c>
-      <c r="L124">
+      <c r="L127">
         <v>0.17</v>
       </c>
     </row>

--- a/results/tables/all_exclusion_databases_scores.xlsx
+++ b/results/tables/all_exclusion_databases_scores.xlsx
@@ -4792,31 +4792,31 @@
         </is>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>99</v>
+        <v>39.1</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="102">
@@ -4836,31 +4836,31 @@
         </is>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>99</v>
+        <v>41.7</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="103">
@@ -4880,31 +4880,31 @@
         </is>
       </c>
       <c r="D103">
-        <v>3.6</v>
+        <v>14.2</v>
       </c>
       <c r="E103">
-        <v>61.3</v>
+        <v>43.5</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>34.1</v>
+        <v>41.3</v>
       </c>
       <c r="H103">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="I103">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="J103">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="K103">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="L103">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="104">
@@ -4924,31 +4924,31 @@
         </is>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="105">
@@ -4968,31 +4968,31 @@
         </is>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="106">
@@ -5012,31 +5012,31 @@
         </is>
       </c>
       <c r="D106">
-        <v>3.2</v>
+        <v>13.3</v>
       </c>
       <c r="E106">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>90.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="H106">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="I106">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="J106">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="K106">
+        <v>0.41</v>
+      </c>
+      <c r="L106">
         <v>0.13</v>
-      </c>
-      <c r="L106">
-        <v>0.03</v>
       </c>
     </row>
     <row r="107">
@@ -5056,31 +5056,31 @@
         </is>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>99</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="108">
@@ -5100,31 +5100,31 @@
         </is>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>99</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="109">
@@ -5144,31 +5144,31 @@
         </is>
       </c>
       <c r="D109">
-        <v>3.1</v>
+        <v>11.5</v>
       </c>
       <c r="E109">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>94</v>
+        <v>86.2</v>
       </c>
       <c r="H109">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I109">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="J109">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="K109">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="L109">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="110">
